--- a/01-carga-excel/sqlite/docs/excel-cod.xlsx
+++ b/01-carga-excel/sqlite/docs/excel-cod.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29602"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08DCAC3-7FD5-4D7E-9412-48724040E25B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
   <sheets>
     <sheet name="EX00" sheetId="1" r:id="rId1"/>
@@ -2994,64 +2994,64 @@
     <t>RDL</t>
   </si>
   <si>
+    <t>Residente en los tres años inmediatamente anteriores a la solicitud , nacido en España =18 años  (art. 183.3.c)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residente en los tres años inmediatamente anteriores a la solicitud, &gt;18 años y nacido en España </t>
+  </si>
+  <si>
+    <t>H2E003</t>
+  </si>
+  <si>
+    <t>RDM</t>
+  </si>
+  <si>
     <t>D</t>
   </si>
   <si>
-    <t>Residente en los tres años inmediatamente anteriores a la solicitud , nacido en España =18 años  (art. 183.3.c)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residente en los tres años inmediatamente anteriores a la solicitud, &gt;18 años y nacido en España </t>
-  </si>
-  <si>
-    <t>H2E003</t>
-  </si>
-  <si>
-    <t>RDM</t>
+    <t>(5) Extranjeros que hayan contribuido de forma notoria al progreso de España o a su proyección en el exterior  (art. 183.3.g)</t>
+  </si>
+  <si>
+    <t>Contribución notoria.OFICIO</t>
+  </si>
+  <si>
+    <t>N-CADUCIDAD</t>
+  </si>
+  <si>
+    <t>H2E008</t>
+  </si>
+  <si>
+    <t>RDN</t>
   </si>
   <si>
     <t>E</t>
   </si>
   <si>
-    <t>(5) Extranjeros que hayan contribuido de forma notoria al progreso de España o a su proyección en el exterior  (art. 183.3.g)</t>
-  </si>
-  <si>
-    <t>Contribución notoria.OFICIO</t>
-  </si>
-  <si>
-    <t>N-CADUCIDAD</t>
-  </si>
-  <si>
-    <t>H2E008</t>
-  </si>
-  <si>
-    <t>RDN</t>
+    <t>Supuesto general 5 años de residencia legal continuada en España (art. 183.1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supuesto general 5 años de residencia continuada en España </t>
+  </si>
+  <si>
+    <t>H2E000</t>
   </si>
   <si>
     <t>F</t>
   </si>
   <si>
-    <t>Supuesto general 5 años de residencia legal continuada en España (art. 183.1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supuesto general 5 años de residencia continuada en España </t>
-  </si>
-  <si>
-    <t>H2E000</t>
+    <t>Residente beneficiario de pensión contributiva de jubilación o  beneficiario de incapacidad permanente absoluta o gran invalidez  (art. 183.3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residente beneficiario de pensión contributiva de jubilación o beneficiario de incapacidad permanente absoluta o gran invalidez </t>
+  </si>
+  <si>
+    <t>H2E002</t>
+  </si>
+  <si>
+    <t>RDP</t>
   </si>
   <si>
     <t>G</t>
-  </si>
-  <si>
-    <t>Residente beneficiario de pensión contributiva de jubilación o  beneficiario de incapacidad permanente absoluta o gran invalidez  (art. 183.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residente beneficiario de pensión contributiva de jubilación o beneficiario de incapacidad permanente absoluta o gran invalidez </t>
-  </si>
-  <si>
-    <t>H2E002</t>
-  </si>
-  <si>
-    <t>RDP</t>
   </si>
   <si>
     <t>IAEAAAAAKA</t>
@@ -3125,19 +3125,19 @@
     <t>2.7</t>
   </si>
   <si>
+    <t>Residente durante 5 años consecutivos inmediatamente anteriores  &gt;18 años bajo tutela de entidad (art. 183.3.e)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Residente tutelado por entidad pública 5 años consecutivos inmediatamente anteriores a la mayoría de edad </t>
+  </si>
+  <si>
+    <t>H2E004</t>
+  </si>
+  <si>
+    <t>RDT</t>
+  </si>
+  <si>
     <t>H</t>
-  </si>
-  <si>
-    <t>Residente durante 5 años consecutivos inmediatamente anteriores  &gt;18 años bajo tutela de entidad (art. 183.3.e)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Residente tutelado por entidad pública 5 años consecutivos inmediatamente anteriores a la mayoría de edad </t>
-  </si>
-  <si>
-    <t>H2E004</t>
-  </si>
-  <si>
-    <t>RDT</t>
   </si>
   <si>
     <t xml:space="preserve">TITULAR de residencia de larga duración-UE en otro Estado miembro (art.179 ) </t>
@@ -4274,7 +4274,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -6432,19 +6432,19 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
-    <col min="5" max="5" width="47.88671875" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+    <col min="5" max="5" width="47.85546875" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="13" max="13" width="12.44140625" customWidth="1"/>
+    <col min="13" max="13" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6515,7 +6515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="165.6">
       <c r="A2" s="4" t="s">
         <v>23</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" ht="165.6">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="165.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="165.6">
       <c r="A4" s="4" t="s">
         <v>23</v>
       </c>
@@ -6710,7 +6710,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="138" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" ht="138">
       <c r="A5" s="4" t="s">
         <v>23</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="138" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" ht="138">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" ht="151.9">
       <c r="A7" s="4" t="s">
         <v>23</v>
       </c>
@@ -6903,7 +6903,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="151.9">
       <c r="A8" s="4" t="s">
         <v>23</v>
       </c>
@@ -6966,7 +6966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" ht="41.45">
       <c r="A9" s="4" t="s">
         <v>23</v>
       </c>
@@ -7029,7 +7029,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" ht="41.45">
       <c r="A10" s="4" t="s">
         <v>23</v>
       </c>
@@ -7092,7 +7092,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="124.15">
       <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="124.15">
       <c r="A12" s="4" t="s">
         <v>23</v>
       </c>
@@ -7222,7 +7222,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" ht="82.9">
       <c r="A13" s="4" t="s">
         <v>23</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" ht="82.9">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -7352,7 +7352,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" ht="55.15">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -7413,7 +7413,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="55.15">
       <c r="A16" s="4" t="s">
         <v>23</v>
       </c>
@@ -7474,7 +7474,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="17" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" ht="55.15">
       <c r="A17" s="4" t="s">
         <v>23</v>
       </c>
@@ -7537,7 +7537,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" ht="55.15">
       <c r="A18" s="4" t="s">
         <v>23</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="82.9">
       <c r="A19" s="4" t="s">
         <v>23</v>
       </c>
@@ -7665,7 +7665,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="82.9">
       <c r="A20" s="4" t="s">
         <v>23</v>
       </c>
@@ -7730,7 +7730,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="41.45">
       <c r="A21" s="4" t="s">
         <v>23</v>
       </c>
@@ -7791,7 +7791,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="22" spans="1:23" ht="151.80000000000001" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="151.9">
       <c r="A22" s="4" t="s">
         <v>23</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="41.45">
       <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
@@ -7919,7 +7919,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="82.9">
       <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
@@ -7984,7 +7984,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="41.45">
       <c r="A25" s="4" t="s">
         <v>23</v>
       </c>
@@ -8043,7 +8043,7 @@
       </c>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" ht="55.15">
       <c r="A26" s="4" t="s">
         <v>23</v>
       </c>
@@ -8108,7 +8108,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="41.45">
       <c r="A27" s="4" t="s">
         <v>23</v>
       </c>
@@ -8173,7 +8173,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" ht="41.45">
       <c r="A28" s="4" t="s">
         <v>23</v>
       </c>
@@ -8236,7 +8236,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" ht="124.15">
       <c r="A29" s="4" t="s">
         <v>23</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" ht="82.9">
       <c r="A30" s="4" t="s">
         <v>23</v>
       </c>
@@ -8366,7 +8366,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="55.15">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" ht="55.15">
       <c r="A32" s="4" t="s">
         <v>23</v>
       </c>
@@ -8513,16 +8513,16 @@
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="45.5546875" customWidth="1"/>
-    <col min="6" max="6" width="50.5546875" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8659,7 +8659,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="41.45">
       <c r="A2" s="161" t="s">
         <v>855</v>
       </c>
@@ -8766,7 +8766,7 @@
       <c r="AR2" s="147"/>
       <c r="AS2" s="147"/>
     </row>
-    <row r="3" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="27.6">
       <c r="A3" s="161" t="s">
         <v>855</v>
       </c>
@@ -8873,7 +8873,7 @@
       <c r="AR3" s="147"/>
       <c r="AS3" s="147"/>
     </row>
-    <row r="4" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="27.6">
       <c r="A4" s="161" t="s">
         <v>855</v>
       </c>
@@ -8980,7 +8980,7 @@
       <c r="AR4" s="147"/>
       <c r="AS4" s="147"/>
     </row>
-    <row r="5" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="27.6">
       <c r="A5" s="161" t="s">
         <v>855</v>
       </c>
@@ -8992,10 +8992,10 @@
         <v>857</v>
       </c>
       <c r="E5" s="141" t="s">
+        <v>875</v>
+      </c>
+      <c r="F5" s="141" t="s">
         <v>876</v>
-      </c>
-      <c r="F5" s="141" t="s">
-        <v>877</v>
       </c>
       <c r="G5" s="162" t="s">
         <v>298</v>
@@ -9007,13 +9007,13 @@
         <v>131</v>
       </c>
       <c r="J5" s="163" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K5" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L5" s="147" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="M5" s="162" t="s">
         <v>201</v>
@@ -9065,7 +9065,7 @@
         <v>856</v>
       </c>
       <c r="AF5" s="139" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG5" s="147" t="s">
         <v>209</v>
@@ -9089,7 +9089,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="41.45">
       <c r="A6" s="161" t="s">
         <v>855</v>
       </c>
@@ -9101,10 +9101,10 @@
         <v>857</v>
       </c>
       <c r="E6" s="141" t="s">
+        <v>880</v>
+      </c>
+      <c r="F6" s="141" t="s">
         <v>881</v>
-      </c>
-      <c r="F6" s="141" t="s">
-        <v>882</v>
       </c>
       <c r="G6" s="162" t="s">
         <v>298</v>
@@ -9113,16 +9113,16 @@
         <v>215</v>
       </c>
       <c r="I6" s="147" t="s">
+        <v>882</v>
+      </c>
+      <c r="J6" s="163" t="s">
         <v>883</v>
-      </c>
-      <c r="J6" s="163" t="s">
-        <v>884</v>
       </c>
       <c r="K6" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L6" s="147" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="M6" s="162" t="s">
         <v>201</v>
@@ -9174,7 +9174,7 @@
         <v>856</v>
       </c>
       <c r="AF6" s="139" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="AG6" s="147" t="s">
         <v>209</v>
@@ -9196,7 +9196,7 @@
       <c r="AR6" s="147"/>
       <c r="AS6" s="147"/>
     </row>
-    <row r="7" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="27.6">
       <c r="A7" s="161" t="s">
         <v>855</v>
       </c>
@@ -9208,10 +9208,10 @@
         <v>857</v>
       </c>
       <c r="E7" s="141" t="s">
+        <v>886</v>
+      </c>
+      <c r="F7" s="141" t="s">
         <v>887</v>
-      </c>
-      <c r="F7" s="141" t="s">
-        <v>888</v>
       </c>
       <c r="G7" s="162" t="s">
         <v>298</v>
@@ -9223,7 +9223,7 @@
         <v>131</v>
       </c>
       <c r="J7" s="163" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="K7" s="147" t="s">
         <v>861</v>
@@ -9281,7 +9281,7 @@
         <v>856</v>
       </c>
       <c r="AF7" s="139" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="AG7" s="147" t="s">
         <v>209</v>
@@ -9303,7 +9303,7 @@
       <c r="AR7" s="147"/>
       <c r="AS7" s="147"/>
     </row>
-    <row r="8" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="41.45">
       <c r="A8" s="161" t="s">
         <v>855</v>
       </c>
@@ -9315,10 +9315,10 @@
         <v>857</v>
       </c>
       <c r="E8" s="167" t="s">
+        <v>890</v>
+      </c>
+      <c r="F8" s="141" t="s">
         <v>891</v>
-      </c>
-      <c r="F8" s="141" t="s">
-        <v>892</v>
       </c>
       <c r="G8" s="162" t="s">
         <v>298</v>
@@ -9330,13 +9330,13 @@
         <v>131</v>
       </c>
       <c r="J8" s="163" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="K8" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L8" s="147" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="M8" s="162" t="s">
         <v>201</v>
@@ -9388,7 +9388,7 @@
         <v>856</v>
       </c>
       <c r="AF8" s="139" t="s">
-        <v>890</v>
+        <v>894</v>
       </c>
       <c r="AG8" s="147" t="s">
         <v>209</v>
@@ -9410,7 +9410,7 @@
       <c r="AR8" s="147"/>
       <c r="AS8" s="147"/>
     </row>
-    <row r="9" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="55.15">
       <c r="A9" s="161" t="s">
         <v>855</v>
       </c>
@@ -9517,7 +9517,7 @@
       <c r="AR9" s="147"/>
       <c r="AS9" s="147"/>
     </row>
-    <row r="10" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="41.45">
       <c r="A10" s="161" t="s">
         <v>855</v>
       </c>
@@ -9624,7 +9624,7 @@
       <c r="AR10" s="147"/>
       <c r="AS10" s="147"/>
     </row>
-    <row r="11" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="41.45">
       <c r="A11" s="161" t="s">
         <v>855</v>
       </c>
@@ -9636,10 +9636,10 @@
         <v>857</v>
       </c>
       <c r="E11" s="141" t="s">
+        <v>907</v>
+      </c>
+      <c r="F11" s="141" t="s">
         <v>908</v>
-      </c>
-      <c r="F11" s="141" t="s">
-        <v>909</v>
       </c>
       <c r="G11" s="162" t="s">
         <v>298</v>
@@ -9651,13 +9651,13 @@
         <v>131</v>
       </c>
       <c r="J11" s="163" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="K11" s="147" t="s">
         <v>861</v>
       </c>
       <c r="L11" s="147" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="M11" s="162" t="s">
         <v>201</v>
@@ -9709,7 +9709,7 @@
         <v>856</v>
       </c>
       <c r="AF11" s="139" t="s">
-        <v>907</v>
+        <v>911</v>
       </c>
       <c r="AG11" s="147" t="s">
         <v>209</v>
@@ -9731,7 +9731,7 @@
       <c r="AR11" s="147"/>
       <c r="AS11" s="147"/>
     </row>
-    <row r="12" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="27.6">
       <c r="A12" s="161" t="s">
         <v>855</v>
       </c>
@@ -9838,7 +9838,7 @@
       <c r="AR12" s="147"/>
       <c r="AS12" s="147"/>
     </row>
-    <row r="13" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="41.45">
       <c r="A13" s="161" t="s">
         <v>855</v>
       </c>
@@ -9945,7 +9945,7 @@
       <c r="AR13" s="147"/>
       <c r="AS13" s="147"/>
     </row>
-    <row r="14" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="41.45">
       <c r="A14" s="161" t="s">
         <v>855</v>
       </c>
@@ -10030,7 +10030,7 @@
         <v>895</v>
       </c>
       <c r="AF14" s="139" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG14" s="147" t="s">
         <v>209</v>
@@ -10052,7 +10052,7 @@
       <c r="AR14" s="147"/>
       <c r="AS14" s="147"/>
     </row>
-    <row r="15" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="41.45">
       <c r="A15" s="161" t="s">
         <v>855</v>
       </c>
@@ -10159,7 +10159,7 @@
       <c r="AR15" s="147"/>
       <c r="AS15" s="147"/>
     </row>
-    <row r="16" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="41.45">
       <c r="A16" s="161" t="s">
         <v>855</v>
       </c>
@@ -10266,7 +10266,7 @@
       <c r="AR16" s="147"/>
       <c r="AS16" s="147"/>
     </row>
-    <row r="17" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="41.45">
       <c r="A17" s="161" t="s">
         <v>855</v>
       </c>
@@ -10373,7 +10373,7 @@
       <c r="AR17" s="147"/>
       <c r="AS17" s="147"/>
     </row>
-    <row r="18" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="41.45">
       <c r="A18" s="161" t="s">
         <v>855</v>
       </c>
@@ -10480,7 +10480,7 @@
       <c r="AR18" s="147"/>
       <c r="AS18" s="147"/>
     </row>
-    <row r="19" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="55.15">
       <c r="A19" s="161" t="s">
         <v>855</v>
       </c>
@@ -10587,7 +10587,7 @@
       <c r="AR19" s="147"/>
       <c r="AS19" s="147"/>
     </row>
-    <row r="20" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="41.45">
       <c r="A20" s="161" t="s">
         <v>855</v>
       </c>
@@ -10672,7 +10672,7 @@
         <v>927</v>
       </c>
       <c r="AF20" s="139" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG20" s="147" t="s">
         <v>209</v>
@@ -10714,24 +10714,24 @@
   </sheetPr>
   <dimension ref="A1:AJ5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="1" width="22.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
-    <col min="5" max="5" width="44.6640625" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="13" max="13" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44.7109375" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="14" width="22" customWidth="1"/>
     <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="34" max="34" width="39.44140625" customWidth="1"/>
-    <col min="35" max="35" width="14.5546875" customWidth="1"/>
+    <col min="34" max="34" width="39.42578125" customWidth="1"/>
+    <col min="35" max="35" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:36" ht="41.45">
       <c r="A1" s="275" t="s">
         <v>953</v>
       </c>
@@ -10841,7 +10841,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36">
       <c r="A2" s="280" t="s">
         <v>976</v>
       </c>
@@ -10913,7 +10913,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:36">
       <c r="A3" s="280" t="s">
         <v>976</v>
       </c>
@@ -10982,7 +10982,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:36">
       <c r="A4" s="280" t="s">
         <v>976</v>
       </c>
@@ -11053,7 +11053,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:36">
       <c r="A5" s="280" t="s">
         <v>976</v>
       </c>
@@ -11141,17 +11141,17 @@
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.45"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="182" customWidth="1"/>
-    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" style="182" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
     <col min="16" max="16" width="19" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="172" customFormat="1" ht="110.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="172" customFormat="1" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -11332,7 +11332,7 @@
       <c r="CJ1" s="178"/>
       <c r="CK1" s="178"/>
     </row>
-    <row r="2" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" ht="41.45">
       <c r="A2" s="1" t="s">
         <v>1004</v>
       </c>
@@ -11428,7 +11428,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="3" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" ht="41.45">
       <c r="A3" s="1" t="s">
         <v>1004</v>
       </c>
@@ -11524,7 +11524,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" ht="41.45">
       <c r="A4" s="1" t="s">
         <v>1004</v>
       </c>
@@ -11618,7 +11618,7 @@
       </c>
       <c r="AH4" s="31"/>
     </row>
-    <row r="5" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" ht="41.45">
       <c r="A5" s="1" t="s">
         <v>1004</v>
       </c>
@@ -11626,7 +11626,7 @@
         <v>1005</v>
       </c>
       <c r="C5" s="179" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="D5" s="33" t="s">
         <v>1006</v>
@@ -11705,14 +11705,14 @@
         <v>1005</v>
       </c>
       <c r="AF5" s="181" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG5" s="34" t="s">
         <v>209</v>
       </c>
       <c r="AH5" s="31"/>
     </row>
-    <row r="6" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" ht="41.45">
       <c r="A6" s="1" t="s">
         <v>1004</v>
       </c>
@@ -11808,7 +11808,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:89" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" ht="41.45">
       <c r="A7" s="1" t="s">
         <v>1004</v>
       </c>
@@ -11925,13 +11925,13 @@
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="37.6640625" customWidth="1"/>
-    <col min="5" max="5" width="50.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.7109375" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="41.45">
       <c r="A2" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12173,7 +12173,7 @@
       <c r="AR2" s="180"/>
       <c r="AS2" s="180"/>
     </row>
-    <row r="3" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="41.45">
       <c r="A3" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12278,7 +12278,7 @@
       <c r="AR3" s="180"/>
       <c r="AS3" s="180"/>
     </row>
-    <row r="4" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="39.6">
       <c r="A4" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12383,7 +12383,7 @@
       <c r="AR4" s="180"/>
       <c r="AS4" s="180"/>
     </row>
-    <row r="5" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="39.6">
       <c r="A5" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12488,7 +12488,7 @@
       <c r="AR5" s="180"/>
       <c r="AS5" s="180"/>
     </row>
-    <row r="6" spans="1:45" ht="66" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" ht="66">
       <c r="A6" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12593,7 +12593,7 @@
       <c r="AR6" s="180"/>
       <c r="AS6" s="180"/>
     </row>
-    <row r="7" spans="1:45" ht="66" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" ht="66">
       <c r="A7" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12698,7 +12698,7 @@
       <c r="AR7" s="180"/>
       <c r="AS7" s="180"/>
     </row>
-    <row r="8" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" ht="41.45">
       <c r="A8" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12803,7 +12803,7 @@
       <c r="AR8" s="180"/>
       <c r="AS8" s="180"/>
     </row>
-    <row r="9" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" ht="41.45">
       <c r="A9" s="184" t="s">
         <v>1034</v>
       </c>
@@ -12908,7 +12908,7 @@
       <c r="AR9" s="180"/>
       <c r="AS9" s="180"/>
     </row>
-    <row r="10" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" ht="39.6">
       <c r="A10" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13013,7 +13013,7 @@
       <c r="AR10" s="180"/>
       <c r="AS10" s="180"/>
     </row>
-    <row r="11" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" ht="41.45">
       <c r="A11" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13118,7 +13118,7 @@
       <c r="AR11" s="180"/>
       <c r="AS11" s="180"/>
     </row>
-    <row r="12" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" ht="39.6">
       <c r="A12" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13223,7 +13223,7 @@
       <c r="AR12" s="180"/>
       <c r="AS12" s="180"/>
     </row>
-    <row r="13" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" ht="39.6">
       <c r="A13" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13324,7 +13324,7 @@
       <c r="AR13" s="91"/>
       <c r="AS13" s="91"/>
     </row>
-    <row r="14" spans="1:45" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" ht="79.150000000000006">
       <c r="A14" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13431,7 +13431,7 @@
       <c r="AR14" s="180"/>
       <c r="AS14" s="180"/>
     </row>
-    <row r="15" spans="1:45" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" ht="57.6">
       <c r="A15" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13538,7 +13538,7 @@
       <c r="AR15" s="180"/>
       <c r="AS15" s="180"/>
     </row>
-    <row r="16" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" ht="39.6">
       <c r="A16" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13643,7 +13643,7 @@
       <c r="AR16" s="180"/>
       <c r="AS16" s="180"/>
     </row>
-    <row r="17" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" ht="39.6">
       <c r="A17" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13748,7 +13748,7 @@
       <c r="AR17" s="180"/>
       <c r="AS17" s="180"/>
     </row>
-    <row r="18" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" ht="39.6">
       <c r="A18" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13853,7 +13853,7 @@
       <c r="AR18" s="180"/>
       <c r="AS18" s="180"/>
     </row>
-    <row r="19" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" ht="39.6">
       <c r="A19" s="184" t="s">
         <v>1034</v>
       </c>
@@ -13958,7 +13958,7 @@
       <c r="AR19" s="180"/>
       <c r="AS19" s="180"/>
     </row>
-    <row r="20" spans="1:45" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" ht="39.6">
       <c r="A20" s="184" t="s">
         <v>1034</v>
       </c>
@@ -14063,7 +14063,7 @@
       <c r="AR20" s="180"/>
       <c r="AS20" s="180"/>
     </row>
-    <row r="21" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" ht="55.15">
       <c r="A21" s="184" t="s">
         <v>1034</v>
       </c>
@@ -14146,7 +14146,7 @@
         <v>1134</v>
       </c>
       <c r="AF21" s="34" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="AG21" s="34" t="s">
         <v>1135</v>
@@ -14168,7 +14168,7 @@
       <c r="AR21" s="34"/>
       <c r="AS21" s="34"/>
     </row>
-    <row r="22" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" ht="55.15">
       <c r="A22" s="184" t="s">
         <v>1034</v>
       </c>
@@ -14251,7 +14251,7 @@
         <v>1134</v>
       </c>
       <c r="AF22" s="34" t="s">
-        <v>880</v>
+        <v>885</v>
       </c>
       <c r="AG22" s="34" t="s">
         <v>1135</v>
@@ -14273,7 +14273,7 @@
       <c r="AR22" s="34"/>
       <c r="AS22" s="34"/>
     </row>
-    <row r="23" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" ht="27.6">
       <c r="A23" s="203" t="s">
         <v>1143</v>
       </c>
@@ -14334,7 +14334,7 @@
       <c r="AR23" s="34"/>
       <c r="AS23" s="34"/>
     </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45">
       <c r="A24" s="203" t="s">
         <v>1143</v>
       </c>
@@ -14395,7 +14395,7 @@
       <c r="AR24" s="34"/>
       <c r="AS24" s="34"/>
     </row>
-    <row r="25" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" ht="27.6">
       <c r="A25" s="203" t="s">
         <v>1143</v>
       </c>
@@ -14456,7 +14456,7 @@
       <c r="AR25" s="34"/>
       <c r="AS25" s="34"/>
     </row>
-    <row r="26" spans="1:45" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:45" ht="55.15">
       <c r="A26" s="203" t="s">
         <v>1143</v>
       </c>
@@ -14578,18 +14578,18 @@
       <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="10.88671875" style="182"/>
-    <col min="4" max="4" width="46.88671875" style="182" customWidth="1"/>
-    <col min="5" max="5" width="51.109375" style="272" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" style="182" customWidth="1"/>
-    <col min="7" max="13" width="10.88671875" style="182"/>
-    <col min="14" max="15" width="10.88671875" style="273"/>
-    <col min="16" max="16384" width="10.88671875" style="182"/>
+    <col min="1" max="3" width="10.85546875" style="182"/>
+    <col min="4" max="4" width="46.85546875" style="182" customWidth="1"/>
+    <col min="5" max="5" width="51.140625" style="272" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" style="182" customWidth="1"/>
+    <col min="7" max="13" width="10.85546875" style="182"/>
+    <col min="14" max="15" width="10.85546875" style="273"/>
+    <col min="16" max="16384" width="10.85546875" style="182"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" customFormat="1" ht="110.45">
       <c r="A1" s="78" t="s">
         <v>0</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A2" s="305" t="s">
         <v>1160</v>
       </c>
@@ -14837,7 +14837,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="3" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A3" s="305" t="s">
         <v>1160</v>
       </c>
@@ -14948,7 +14948,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="4" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A4" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15059,7 +15059,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="5" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A5" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15170,7 +15170,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="6" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A6" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15281,7 +15281,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="7" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A7" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15392,7 +15392,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="8" spans="1:45" s="324" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" s="324" customFormat="1" ht="41.45">
       <c r="A8" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15503,7 +15503,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A9" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A10" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15725,7 +15725,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="11" spans="1:45" s="327" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45" s="327" customFormat="1" ht="41.45">
       <c r="A11" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15820,7 +15820,7 @@
       <c r="AR11" s="306"/>
       <c r="AS11" s="306"/>
     </row>
-    <row r="12" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A12" s="305" t="s">
         <v>1160</v>
       </c>
@@ -15917,7 +15917,7 @@
       <c r="AR12" s="306"/>
       <c r="AS12" s="306"/>
     </row>
-    <row r="13" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A13" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16012,7 +16012,7 @@
       <c r="AR13" s="306"/>
       <c r="AS13" s="306"/>
     </row>
-    <row r="14" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A14" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16109,7 +16109,7 @@
       <c r="AR14" s="306"/>
       <c r="AS14" s="306"/>
     </row>
-    <row r="15" spans="1:45" s="285" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:45" s="285" customFormat="1" ht="27.6">
       <c r="A15" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16202,7 +16202,7 @@
       <c r="AR15" s="306"/>
       <c r="AS15" s="306"/>
     </row>
-    <row r="16" spans="1:45" s="285" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:45" s="285" customFormat="1" ht="41.45">
       <c r="A16" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16313,7 +16313,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="17" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:45" customFormat="1" ht="41.45">
       <c r="A17" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16410,7 +16410,7 @@
       <c r="AR17" s="306"/>
       <c r="AS17" s="306"/>
     </row>
-    <row r="18" spans="1:45" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:45" customFormat="1" ht="27.6">
       <c r="A18" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16503,7 +16503,7 @@
       <c r="AR18" s="306"/>
       <c r="AS18" s="306"/>
     </row>
-    <row r="19" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:45" customFormat="1" ht="41.45">
       <c r="A19" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16598,7 +16598,7 @@
       <c r="AR19" s="306"/>
       <c r="AS19" s="306"/>
     </row>
-    <row r="20" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:45" customFormat="1" ht="41.45">
       <c r="A20" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16691,7 +16691,7 @@
       <c r="AR20" s="306"/>
       <c r="AS20" s="306"/>
     </row>
-    <row r="21" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:45" customFormat="1" ht="41.45">
       <c r="A21" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16802,7 +16802,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="22" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:45" customFormat="1" ht="41.45">
       <c r="A22" s="305" t="s">
         <v>1160</v>
       </c>
@@ -16913,7 +16913,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="23" spans="1:45" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:45" customFormat="1" ht="41.45">
       <c r="A23" s="305" t="s">
         <v>1160</v>
       </c>
@@ -17022,7 +17022,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="24" spans="1:45" s="316" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A24" s="305" t="s">
         <v>1160</v>
       </c>
@@ -17135,7 +17135,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="25" spans="1:45" s="316" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:45" s="316" customFormat="1" ht="27.6">
       <c r="A25" s="305" t="s">
         <v>1160</v>
       </c>
@@ -17291,9 +17291,9 @@
       <selection activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:89" s="172" customFormat="1" ht="55.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="172" customFormat="1" ht="55.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17474,7 +17474,7 @@
       <c r="CJ1" s="178"/>
       <c r="CK1" s="178"/>
     </row>
-    <row r="2" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A2" s="1" t="s">
         <v>1258</v>
       </c>
@@ -17565,7 +17565,7 @@
       <c r="BL2" s="76"/>
       <c r="BM2" s="174"/>
     </row>
-    <row r="3" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A3" s="1" t="s">
         <v>1258</v>
       </c>
@@ -17656,7 +17656,7 @@
       <c r="BL3" s="76"/>
       <c r="BM3" s="174"/>
     </row>
-    <row r="4" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A4" s="1" t="s">
         <v>1258</v>
       </c>
@@ -17747,7 +17747,7 @@
       <c r="BL4" s="76"/>
       <c r="BM4" s="174"/>
     </row>
-    <row r="5" spans="1:89" s="33" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A5" s="1" t="s">
         <v>1258</v>
       </c>
@@ -17855,18 +17855,18 @@
   </sheetPr>
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="4" max="4" width="58" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="23" max="23" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="23" max="23" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" ht="41.45">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -18089,7 +18089,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" ht="41.45">
       <c r="A3" s="1" t="s">
         <v>194</v>
       </c>
@@ -18175,7 +18175,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" ht="27.6">
       <c r="A4" s="1" t="s">
         <v>194</v>
       </c>
@@ -18261,7 +18261,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" ht="27.6">
       <c r="A5" s="1" t="s">
         <v>194</v>
       </c>
@@ -18364,35 +18364,35 @@
   </sheetPr>
   <dimension ref="A1:CK15"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="55.109375" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" customWidth="1"/>
     <col min="5" max="5" width="66" customWidth="1"/>
-    <col min="6" max="6" width="63.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.44140625" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.5546875" customWidth="1"/>
-    <col min="14" max="14" width="17.33203125" customWidth="1"/>
-    <col min="15" max="15" width="11.44140625" customWidth="1"/>
-    <col min="16" max="16" width="14.44140625" customWidth="1"/>
-    <col min="19" max="19" width="11.44140625" customWidth="1"/>
+    <col min="6" max="6" width="63.5703125" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="13.28515625" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="17.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.42578125" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" customWidth="1"/>
     <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
+    <col min="21" max="21" width="15.28515625" customWidth="1"/>
     <col min="22" max="22" width="17" customWidth="1"/>
-    <col min="23" max="23" width="15.88671875" customWidth="1"/>
-    <col min="24" max="24" width="14.109375" customWidth="1"/>
-    <col min="26" max="26" width="19.109375" customWidth="1"/>
+    <col min="23" max="23" width="15.85546875" customWidth="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="19.140625" customWidth="1"/>
     <col min="27" max="27" width="17" customWidth="1"/>
-    <col min="28" max="28" width="13.6640625" customWidth="1"/>
-    <col min="30" max="30" width="16.44140625" customWidth="1"/>
+    <col min="28" max="28" width="13.7109375" customWidth="1"/>
+    <col min="30" max="30" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="172" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="172" customFormat="1" ht="25.5" customHeight="1">
       <c r="A1" s="255" t="s">
         <v>0</v>
       </c>
@@ -18573,7 +18573,7 @@
       <c r="CJ1" s="178"/>
       <c r="CK1" s="178"/>
     </row>
-    <row r="2" spans="1:89" s="172" customFormat="1" ht="207" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:89" s="172" customFormat="1" ht="207">
       <c r="A2" s="1" t="s">
         <v>225</v>
       </c>
@@ -18718,7 +18718,7 @@
       <c r="CJ2" s="178"/>
       <c r="CK2" s="178"/>
     </row>
-    <row r="3" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A3" s="1" t="s">
         <v>225</v>
       </c>
@@ -18861,7 +18861,7 @@
       <c r="CJ3" s="178"/>
       <c r="CK3" s="178"/>
     </row>
-    <row r="4" spans="1:89" s="172" customFormat="1" ht="56.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:89" s="172" customFormat="1" ht="56.25" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>225</v>
       </c>
@@ -19002,7 +19002,7 @@
       <c r="CJ4" s="178"/>
       <c r="CK4" s="178"/>
     </row>
-    <row r="5" spans="1:89" s="172" customFormat="1" ht="71.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:89" s="172" customFormat="1" ht="71.25" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>225</v>
       </c>
@@ -19143,7 +19143,7 @@
       <c r="CJ5" s="178"/>
       <c r="CK5" s="178"/>
     </row>
-    <row r="6" spans="1:89" s="172" customFormat="1" ht="124.2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:89" s="172" customFormat="1" ht="124.15">
       <c r="A6" s="1" t="s">
         <v>225</v>
       </c>
@@ -19288,7 +19288,7 @@
       <c r="CJ6" s="178"/>
       <c r="CK6" s="178"/>
     </row>
-    <row r="7" spans="1:89" s="172" customFormat="1" ht="55.2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:89" s="172" customFormat="1" ht="55.15">
       <c r="A7" s="1" t="s">
         <v>225</v>
       </c>
@@ -19433,7 +19433,7 @@
       <c r="CJ7" s="178"/>
       <c r="CK7" s="178"/>
     </row>
-    <row r="8" spans="1:89" s="172" customFormat="1" ht="82.8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:89" s="172" customFormat="1" ht="82.9">
       <c r="A8" s="1" t="s">
         <v>225</v>
       </c>
@@ -19578,7 +19578,7 @@
       <c r="CJ8" s="178"/>
       <c r="CK8" s="178"/>
     </row>
-    <row r="9" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A9" s="1" t="s">
         <v>225</v>
       </c>
@@ -19721,7 +19721,7 @@
       <c r="CJ9" s="178"/>
       <c r="CK9" s="178"/>
     </row>
-    <row r="10" spans="1:89" s="172" customFormat="1" ht="69" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:89" s="172" customFormat="1" ht="69">
       <c r="A10" s="1" t="s">
         <v>225</v>
       </c>
@@ -19866,7 +19866,7 @@
       <c r="CJ10" s="178"/>
       <c r="CK10" s="178"/>
     </row>
-    <row r="11" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -20001,7 +20001,7 @@
       <c r="CJ11" s="178"/>
       <c r="CK11" s="178"/>
     </row>
-    <row r="12" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A12" s="1" t="s">
         <v>225</v>
       </c>
@@ -20138,7 +20138,7 @@
       <c r="CJ12" s="178"/>
       <c r="CK12" s="178"/>
     </row>
-    <row r="13" spans="1:89" s="172" customFormat="1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:89" s="172" customFormat="1" ht="147.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>225</v>
       </c>
@@ -20283,7 +20283,7 @@
       <c r="CJ13" s="178"/>
       <c r="CK13" s="178"/>
     </row>
-    <row r="14" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A14" s="1" t="s">
         <v>225</v>
       </c>
@@ -20426,7 +20426,7 @@
       <c r="CJ14" s="178"/>
       <c r="CK14" s="178"/>
     </row>
-    <row r="15" spans="1:89" s="172" customFormat="1" ht="27.6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:89" s="172" customFormat="1" ht="27.6">
       <c r="A15" s="1" t="s">
         <v>225</v>
       </c>
@@ -20606,27 +20606,27 @@
       <selection activeCell="L23" sqref="K23:L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.15"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" style="252"/>
-    <col min="2" max="2" width="16.33203125" style="252" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="252" customWidth="1"/>
-    <col min="4" max="4" width="26.88671875" style="252" customWidth="1"/>
-    <col min="5" max="5" width="27.33203125" style="252" customWidth="1"/>
-    <col min="6" max="6" width="35.44140625" style="252" customWidth="1"/>
-    <col min="7" max="16" width="11.44140625" style="252"/>
-    <col min="17" max="17" width="11.44140625" style="254"/>
-    <col min="18" max="18" width="11.44140625" style="252"/>
+    <col min="1" max="1" width="11.42578125" style="252"/>
+    <col min="2" max="2" width="16.28515625" style="252" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" style="252" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" style="252" customWidth="1"/>
+    <col min="5" max="5" width="27.28515625" style="252" customWidth="1"/>
+    <col min="6" max="6" width="35.42578125" style="252" customWidth="1"/>
+    <col min="7" max="16" width="11.42578125" style="252"/>
+    <col min="17" max="17" width="11.42578125" style="254"/>
+    <col min="18" max="18" width="11.42578125" style="252"/>
     <col min="19" max="19" width="14" style="254" customWidth="1"/>
-    <col min="20" max="20" width="11.44140625" style="254"/>
-    <col min="21" max="21" width="12.5546875" style="254" customWidth="1"/>
-    <col min="22" max="22" width="11.44140625" style="254"/>
-    <col min="23" max="30" width="11.44140625" style="252"/>
-    <col min="31" max="31" width="16.5546875" style="252" customWidth="1"/>
-    <col min="32" max="16384" width="11.44140625" style="252"/>
+    <col min="20" max="20" width="11.42578125" style="254"/>
+    <col min="21" max="21" width="12.5703125" style="254" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" style="254"/>
+    <col min="23" max="30" width="11.42578125" style="252"/>
+    <col min="31" max="31" width="16.5703125" style="252" customWidth="1"/>
+    <col min="32" max="16384" width="11.42578125" style="252"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="218" customFormat="1" ht="110.4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="218" customFormat="1" ht="110.45">
       <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
@@ -20807,7 +20807,7 @@
       <c r="CJ1" s="217"/>
       <c r="CK1" s="217"/>
     </row>
-    <row r="2" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A2" s="224" t="s">
         <v>318</v>
       </c>
@@ -20940,7 +20940,7 @@
       <c r="BL2" s="226"/>
       <c r="BM2" s="227"/>
     </row>
-    <row r="3" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A3" s="224" t="s">
         <v>318</v>
       </c>
@@ -21073,7 +21073,7 @@
       <c r="BL3" s="226"/>
       <c r="BM3" s="227"/>
     </row>
-    <row r="4" spans="1:89" s="228" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="228" customFormat="1" ht="69">
       <c r="A4" s="224" t="s">
         <v>318</v>
       </c>
@@ -21206,7 +21206,7 @@
       <c r="BL4" s="226"/>
       <c r="BM4" s="227"/>
     </row>
-    <row r="5" spans="1:89" s="228" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="228" customFormat="1" ht="69">
       <c r="A5" s="224" t="s">
         <v>318</v>
       </c>
@@ -21339,7 +21339,7 @@
       <c r="BL5" s="226"/>
       <c r="BM5" s="227"/>
     </row>
-    <row r="6" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A6" s="224" t="s">
         <v>318</v>
       </c>
@@ -21474,7 +21474,7 @@
       <c r="BL6" s="226"/>
       <c r="BM6" s="227"/>
     </row>
-    <row r="7" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A7" s="224" t="s">
         <v>318</v>
       </c>
@@ -21609,7 +21609,7 @@
       <c r="BL7" s="226"/>
       <c r="BM7" s="227"/>
     </row>
-    <row r="8" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A8" s="224" t="s">
         <v>318</v>
       </c>
@@ -21744,7 +21744,7 @@
       <c r="BL8" s="226"/>
       <c r="BM8" s="227"/>
     </row>
-    <row r="9" spans="1:89" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" s="228" customFormat="1" ht="124.15">
       <c r="A9" s="224" t="s">
         <v>318</v>
       </c>
@@ -21879,7 +21879,7 @@
       <c r="BL9" s="226"/>
       <c r="BM9" s="227"/>
     </row>
-    <row r="10" spans="1:89" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" s="247" customFormat="1" ht="55.15">
       <c r="A10" s="224" t="s">
         <v>318</v>
       </c>
@@ -22031,7 +22031,7 @@
       <c r="CI10" s="238"/>
       <c r="CJ10" s="238"/>
     </row>
-    <row r="11" spans="1:89" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" s="247" customFormat="1" ht="55.15">
       <c r="A11" s="224" t="s">
         <v>318</v>
       </c>
@@ -22183,7 +22183,7 @@
       <c r="CI11" s="238"/>
       <c r="CJ11" s="238"/>
     </row>
-    <row r="12" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A12" s="224" t="s">
         <v>318</v>
       </c>
@@ -22316,7 +22316,7 @@
       <c r="BL12" s="226"/>
       <c r="BM12" s="227"/>
     </row>
-    <row r="13" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A13" s="224" t="s">
         <v>318</v>
       </c>
@@ -22449,7 +22449,7 @@
       <c r="BL13" s="226"/>
       <c r="BM13" s="227"/>
     </row>
-    <row r="14" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A14" s="224" t="s">
         <v>318</v>
       </c>
@@ -22578,7 +22578,7 @@
       <c r="BL14" s="226"/>
       <c r="BM14" s="227"/>
     </row>
-    <row r="15" spans="1:89" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" s="228" customFormat="1" ht="55.15">
       <c r="A15" s="224" t="s">
         <v>318</v>
       </c>
@@ -22707,7 +22707,7 @@
       <c r="BL15" s="226"/>
       <c r="BM15" s="227"/>
     </row>
-    <row r="16" spans="1:89" s="228" customFormat="1" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" s="228" customFormat="1" ht="110.45">
       <c r="A16" s="224" t="s">
         <v>318</v>
       </c>
@@ -22832,7 +22832,7 @@
       <c r="BL16" s="226"/>
       <c r="BM16" s="227"/>
     </row>
-    <row r="17" spans="1:88" s="228" customFormat="1" ht="96.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:88" s="228" customFormat="1" ht="96.6">
       <c r="A17" s="224" t="s">
         <v>318</v>
       </c>
@@ -22961,7 +22961,7 @@
       <c r="BL17" s="226"/>
       <c r="BM17" s="227"/>
     </row>
-    <row r="18" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A18" s="224" t="s">
         <v>407</v>
       </c>
@@ -23088,7 +23088,7 @@
       <c r="BL18" s="226"/>
       <c r="BM18" s="227"/>
     </row>
-    <row r="19" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A19" s="224" t="s">
         <v>318</v>
       </c>
@@ -23213,7 +23213,7 @@
       <c r="BL19" s="226"/>
       <c r="BM19" s="227"/>
     </row>
-    <row r="20" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A20" s="224" t="s">
         <v>318</v>
       </c>
@@ -23338,7 +23338,7 @@
       <c r="BL20" s="226"/>
       <c r="BM20" s="227"/>
     </row>
-    <row r="21" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A21" s="224" t="s">
         <v>318</v>
       </c>
@@ -23463,7 +23463,7 @@
       <c r="BL21" s="226"/>
       <c r="BM21" s="227"/>
     </row>
-    <row r="22" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A22" s="224" t="s">
         <v>318</v>
       </c>
@@ -23588,7 +23588,7 @@
       <c r="BL22" s="226"/>
       <c r="BM22" s="227"/>
     </row>
-    <row r="23" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A23" s="224" t="s">
         <v>318</v>
       </c>
@@ -23719,7 +23719,7 @@
       <c r="BL23" s="226"/>
       <c r="BM23" s="227"/>
     </row>
-    <row r="24" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A24" s="224" t="s">
         <v>318</v>
       </c>
@@ -23850,7 +23850,7 @@
       <c r="BL24" s="226"/>
       <c r="BM24" s="227"/>
     </row>
-    <row r="25" spans="1:88" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:88" s="247" customFormat="1" ht="55.15">
       <c r="A25" s="224" t="s">
         <v>318</v>
       </c>
@@ -24004,7 +24004,7 @@
       <c r="CI25" s="238"/>
       <c r="CJ25" s="238"/>
     </row>
-    <row r="26" spans="1:88" s="247" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:88" s="247" customFormat="1" ht="55.15">
       <c r="A26" s="224" t="s">
         <v>318</v>
       </c>
@@ -24158,7 +24158,7 @@
       <c r="CI26" s="238"/>
       <c r="CJ26" s="238"/>
     </row>
-    <row r="27" spans="1:88" s="228" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:88" s="228" customFormat="1" ht="55.15">
       <c r="A27" s="224" t="s">
         <v>407</v>
       </c>
@@ -24283,7 +24283,7 @@
       <c r="BL27" s="226"/>
       <c r="BM27" s="227"/>
     </row>
-    <row r="28" spans="1:88" s="228" customFormat="1" ht="124.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:88" s="228" customFormat="1" ht="124.15">
       <c r="A28" s="224" t="s">
         <v>318</v>
       </c>
@@ -24410,7 +24410,7 @@
       <c r="BL28" s="226"/>
       <c r="BM28" s="227"/>
     </row>
-    <row r="29" spans="1:88" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:88" ht="55.15">
       <c r="A29" s="248" t="s">
         <v>318</v>
       </c>
@@ -24523,7 +24523,7 @@
       <c r="AR29" s="224"/>
       <c r="AS29" s="224"/>
     </row>
-    <row r="30" spans="1:88" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:88" ht="55.15">
       <c r="A30" s="248" t="s">
         <v>318</v>
       </c>
@@ -24655,15 +24655,15 @@
       <selection activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="28.44140625" customWidth="1"/>
-    <col min="5" max="5" width="60.44140625" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="23" max="23" width="16.88671875" customWidth="1"/>
+    <col min="4" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="60.42578125" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="23" max="23" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" ht="82.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:89" ht="82.9">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -24800,7 +24800,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A2" s="40" t="s">
         <v>486</v>
       </c>
@@ -24931,7 +24931,7 @@
       <c r="CJ2" s="59"/>
       <c r="CK2" s="59"/>
     </row>
-    <row r="3" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A3" s="40" t="s">
         <v>486</v>
       </c>
@@ -25058,7 +25058,7 @@
       <c r="CJ3" s="59"/>
       <c r="CK3" s="59"/>
     </row>
-    <row r="4" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A4" s="40" t="s">
         <v>486</v>
       </c>
@@ -25189,7 +25189,7 @@
       <c r="CJ4" s="59"/>
       <c r="CK4" s="59"/>
     </row>
-    <row r="5" spans="1:89" s="60" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="60" customFormat="1" ht="41.45">
       <c r="A5" s="40" t="s">
         <v>486</v>
       </c>
@@ -25316,7 +25316,7 @@
       <c r="CJ5" s="59"/>
       <c r="CK5" s="59"/>
     </row>
-    <row r="6" spans="1:89" s="60" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" s="60" customFormat="1" ht="69">
       <c r="A6" s="40" t="s">
         <v>486</v>
       </c>
@@ -25447,7 +25447,7 @@
       <c r="CJ6" s="59"/>
       <c r="CK6" s="59"/>
     </row>
-    <row r="7" spans="1:89" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" s="60" customFormat="1" ht="27.6">
       <c r="A7" s="40" t="s">
         <v>486</v>
       </c>
@@ -25576,7 +25576,7 @@
       <c r="CJ7" s="59"/>
       <c r="CK7" s="59"/>
     </row>
-    <row r="8" spans="1:89" s="60" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" s="60" customFormat="1" ht="27.6">
       <c r="A8" s="40" t="s">
         <v>486</v>
       </c>
@@ -25703,7 +25703,7 @@
       <c r="CJ8" s="59"/>
       <c r="CK8" s="59"/>
     </row>
-    <row r="9" spans="1:89" s="60" customFormat="1" ht="69" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" s="60" customFormat="1" ht="69">
       <c r="A9" s="40" t="s">
         <v>486</v>
       </c>
@@ -25857,16 +25857,16 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="5" max="5" width="31.6640625" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" customWidth="1"/>
+    <col min="4" max="4" width="33.42578125" customWidth="1"/>
+    <col min="5" max="5" width="31.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:87" s="77" customFormat="1" ht="55.2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:87" s="77" customFormat="1" ht="55.15">
       <c r="A1" s="64" t="s">
         <v>529</v>
       </c>
@@ -26045,7 +26045,7 @@
       <c r="CH1" s="76"/>
       <c r="CI1" s="76"/>
     </row>
-    <row r="2" spans="1:87" s="86" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:87" s="86" customFormat="1" ht="27.6">
       <c r="A2" s="78" t="s">
         <v>547</v>
       </c>
@@ -26163,7 +26163,7 @@
       <c r="BQ2" s="85"/>
       <c r="BR2" s="85"/>
     </row>
-    <row r="3" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A3" s="87" t="s">
         <v>547</v>
       </c>
@@ -26256,7 +26256,7 @@
       <c r="AR3" s="89"/>
       <c r="AS3" s="89"/>
     </row>
-    <row r="4" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A4" s="92" t="s">
         <v>547</v>
       </c>
@@ -26347,7 +26347,7 @@
       <c r="AR4" s="89"/>
       <c r="AS4" s="89"/>
     </row>
-    <row r="5" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A5" s="92" t="s">
         <v>547</v>
       </c>
@@ -26434,7 +26434,7 @@
       <c r="AR5" s="89"/>
       <c r="AS5" s="89"/>
     </row>
-    <row r="6" spans="1:87" s="86" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:87" s="86" customFormat="1" ht="41.45">
       <c r="A6" s="92" t="s">
         <v>547</v>
       </c>
@@ -26527,7 +26527,7 @@
       <c r="AR6" s="89"/>
       <c r="AS6" s="89"/>
     </row>
-    <row r="7" spans="1:87" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:87">
       <c r="F7" s="103"/>
     </row>
   </sheetData>
@@ -26551,20 +26551,20 @@
       <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="3" width="11.44140625" style="127"/>
-    <col min="4" max="4" width="56.5546875" style="127" customWidth="1"/>
-    <col min="5" max="5" width="50.109375" style="127" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="127" customWidth="1"/>
-    <col min="7" max="8" width="11.44140625" style="127"/>
-    <col min="9" max="29" width="11.44140625" style="128"/>
-    <col min="30" max="30" width="13.6640625" style="129" customWidth="1"/>
-    <col min="31" max="45" width="11.44140625" style="128"/>
-    <col min="46" max="16384" width="11.44140625" style="111"/>
+    <col min="1" max="3" width="11.42578125" style="127"/>
+    <col min="4" max="4" width="56.5703125" style="127" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" style="127" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="127" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="127"/>
+    <col min="9" max="29" width="11.42578125" style="128"/>
+    <col min="30" max="30" width="13.7109375" style="129" customWidth="1"/>
+    <col min="31" max="45" width="11.42578125" style="128"/>
+    <col min="46" max="16384" width="11.42578125" style="111"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="110.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="110.45">
       <c r="A1" s="104" t="s">
         <v>0</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A2" s="104" t="s">
         <v>586</v>
       </c>
@@ -26794,7 +26794,7 @@
       <c r="AR2" s="118"/>
       <c r="AS2" s="118"/>
     </row>
-    <row r="3" spans="1:45" s="121" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:45" s="121" customFormat="1">
       <c r="A3" s="104" t="s">
         <v>586</v>
       </c>
@@ -26865,7 +26865,7 @@
       <c r="AR3" s="118"/>
       <c r="AS3" s="118"/>
     </row>
-    <row r="4" spans="1:45" s="121" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:45" s="121" customFormat="1" ht="55.15">
       <c r="A4" s="104" t="s">
         <v>586</v>
       </c>
@@ -26958,7 +26958,7 @@
       <c r="AR4" s="118"/>
       <c r="AS4" s="118"/>
     </row>
-    <row r="5" spans="1:45" s="121" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:45" s="121" customFormat="1" ht="55.15">
       <c r="A5" s="104" t="s">
         <v>586</v>
       </c>
@@ -27051,7 +27051,7 @@
       <c r="AR5" s="118"/>
       <c r="AS5" s="118"/>
     </row>
-    <row r="6" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A6" s="104" t="s">
         <v>586</v>
       </c>
@@ -27140,7 +27140,7 @@
       <c r="AR6" s="118"/>
       <c r="AS6" s="118"/>
     </row>
-    <row r="7" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A7" s="104" t="s">
         <v>586</v>
       </c>
@@ -27231,7 +27231,7 @@
       <c r="AR7" s="118"/>
       <c r="AS7" s="118"/>
     </row>
-    <row r="8" spans="1:45" s="121" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:45" s="121" customFormat="1" ht="41.45">
       <c r="A8" s="104" t="s">
         <v>586</v>
       </c>
@@ -27324,7 +27324,7 @@
       <c r="AR8" s="118"/>
       <c r="AS8" s="118"/>
     </row>
-    <row r="11" spans="1:45" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:45">
       <c r="A11" s="126" t="s">
         <v>634</v>
       </c>
@@ -27350,17 +27350,17 @@
       <selection activeCell="S2" sqref="S2:S7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
-    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="57.5546875" customWidth="1"/>
-    <col min="5" max="5" width="42.88671875" customWidth="1"/>
-    <col min="6" max="6" width="53.88671875" customWidth="1"/>
-    <col min="7" max="7" width="43.5546875" customWidth="1"/>
-    <col min="8" max="8" width="53.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="57.5703125" customWidth="1"/>
+    <col min="5" max="5" width="42.85546875" customWidth="1"/>
+    <col min="6" max="6" width="53.85546875" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" customWidth="1"/>
+    <col min="8" max="8" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A1" s="130" t="s">
         <v>0</v>
       </c>
@@ -27467,7 +27467,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A2" s="130" t="s">
         <v>637</v>
       </c>
@@ -27564,7 +27564,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="3" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A3" s="130" t="s">
         <v>637</v>
       </c>
@@ -27661,7 +27661,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="4" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A4" s="130" t="s">
         <v>637</v>
       </c>
@@ -27756,7 +27756,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="5" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A5" s="130" t="s">
         <v>637</v>
       </c>
@@ -27851,7 +27851,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="6" spans="1:36" s="138" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" s="138" customFormat="1" ht="13.9">
       <c r="A6" s="152" t="s">
         <v>668</v>
       </c>
@@ -27860,7 +27860,7 @@
       <c r="K6" s="154"/>
       <c r="L6" s="154"/>
     </row>
-    <row r="7" spans="1:36" s="138" customFormat="1" ht="55.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" s="138" customFormat="1" ht="55.15">
       <c r="A7" s="130" t="s">
         <v>637</v>
       </c>
@@ -27956,27 +27956,27 @@
       </c>
       <c r="AJ7" s="147"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:36">
       <c r="D11" s="158"/>
       <c r="E11" s="159"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:36">
       <c r="D12" s="158"/>
       <c r="E12" s="159"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:36">
       <c r="D13" s="158"/>
       <c r="E13" s="159"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:36">
       <c r="D14" s="158"/>
       <c r="E14" s="159"/>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:36">
       <c r="D15" s="160"/>
       <c r="E15" s="160"/>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:36">
       <c r="D16" s="158"/>
       <c r="E16" s="158"/>
     </row>
@@ -28001,54 +28001,54 @@
       <selection activeCell="S10" sqref="S10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="13.15"/>
   <cols>
     <col min="1" max="1" width="8" style="252" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="38.109375" style="252"/>
-    <col min="6" max="6" width="27.6640625" style="252" customWidth="1"/>
-    <col min="7" max="7" width="5.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="38.140625" style="252"/>
+    <col min="6" max="6" width="27.7109375" style="252" customWidth="1"/>
+    <col min="7" max="7" width="5.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.140625" style="252" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" style="252" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="18.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" style="252" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="18.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" style="252" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14" style="252" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="38.109375" style="252"/>
-    <col min="17" max="17" width="18.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="8.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="10.88671875" style="252" customWidth="1"/>
+    <col min="16" max="16" width="38.140625" style="252"/>
+    <col min="17" max="17" width="18.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="8.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="252" customWidth="1"/>
     <col min="22" max="22" width="16" style="252" customWidth="1"/>
-    <col min="23" max="23" width="11.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.88671875" style="252" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="20.33203125" style="252" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="17.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.33203125" style="252" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="21.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="34.109375" style="252" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="11.6640625" style="252" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="14.109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="252" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="20.28515625" style="252" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.28515625" style="252" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="21.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="34.140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="11.7109375" style="252" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="14.140625" style="252" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="26" style="252" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="27.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="18.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="21.44140625" style="252" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="21.5546875" style="252" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="21.33203125" style="252" bestFit="1" customWidth="1"/>
-    <col min="43" max="44" width="21.44140625" style="252" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="27.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="18.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="21.42578125" style="252" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="21.5703125" style="252" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="21.28515625" style="252" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="21.42578125" style="252" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="21" style="252" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="38" style="252" customWidth="1"/>
-    <col min="47" max="16384" width="38.109375" style="252"/>
+    <col min="47" max="16384" width="38.140625" style="252"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:89" s="218" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:89" s="218" customFormat="1" ht="37.5" customHeight="1">
       <c r="A1" s="206" t="s">
         <v>0</v>
       </c>
@@ -28229,7 +28229,7 @@
       <c r="CJ1" s="217"/>
       <c r="CK1" s="217"/>
     </row>
-    <row r="2" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A2" s="206" t="s">
         <v>680</v>
       </c>
@@ -28354,7 +28354,7 @@
       <c r="BL2" s="226"/>
       <c r="BM2" s="227"/>
     </row>
-    <row r="3" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A3" s="206" t="s">
         <v>680</v>
       </c>
@@ -28477,7 +28477,7 @@
       <c r="BL3" s="226"/>
       <c r="BM3" s="227"/>
     </row>
-    <row r="4" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A4" s="206" t="s">
         <v>680</v>
       </c>
@@ -28626,7 +28626,7 @@
       <c r="CJ4" s="228"/>
       <c r="CK4" s="228"/>
     </row>
-    <row r="5" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A5" s="230" t="s">
         <v>680</v>
       </c>
@@ -28771,7 +28771,7 @@
       <c r="CJ5" s="228"/>
       <c r="CK5" s="228"/>
     </row>
-    <row r="6" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A6" s="206" t="s">
         <v>680</v>
       </c>
@@ -28920,7 +28920,7 @@
       <c r="CJ6" s="228"/>
       <c r="CK6" s="228"/>
     </row>
-    <row r="7" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A7" s="230" t="s">
         <v>680</v>
       </c>
@@ -29065,7 +29065,7 @@
       <c r="CJ7" s="228"/>
       <c r="CK7" s="228"/>
     </row>
-    <row r="8" spans="1:89" s="228" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:89" s="228" customFormat="1" ht="27.6">
       <c r="A8" s="206" t="s">
         <v>680</v>
       </c>
@@ -29190,7 +29190,7 @@
       <c r="BL8" s="226"/>
       <c r="BM8" s="227"/>
     </row>
-    <row r="9" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A9" s="230" t="s">
         <v>680</v>
       </c>
@@ -29335,7 +29335,7 @@
       <c r="CJ9" s="228"/>
       <c r="CK9" s="228"/>
     </row>
-    <row r="10" spans="1:89" s="229" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:89" s="229" customFormat="1" ht="41.45">
       <c r="A10" s="206" t="s">
         <v>680</v>
       </c>
@@ -29460,7 +29460,7 @@
       <c r="BL10" s="233"/>
       <c r="BM10" s="234"/>
     </row>
-    <row r="11" spans="1:89" s="229" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:89" s="229" customFormat="1" ht="41.45">
       <c r="A11" s="230" t="s">
         <v>680</v>
       </c>
@@ -29605,7 +29605,7 @@
       <c r="CJ11" s="228"/>
       <c r="CK11" s="228"/>
     </row>
-    <row r="12" spans="1:89" s="229" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:89" s="229" customFormat="1" ht="27.6">
       <c r="A12" s="206" t="s">
         <v>680</v>
       </c>
@@ -29748,7 +29748,7 @@
       <c r="CJ12" s="228"/>
       <c r="CK12" s="228"/>
     </row>
-    <row r="13" spans="1:89" s="235" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:89" s="235" customFormat="1" ht="27.6">
       <c r="A13" s="206" t="s">
         <v>680</v>
       </c>
@@ -29897,7 +29897,7 @@
       <c r="CJ13" s="228"/>
       <c r="CK13" s="228"/>
     </row>
-    <row r="14" spans="1:89" s="235" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:89" s="235" customFormat="1" ht="27.6">
       <c r="A14" s="206" t="s">
         <v>680</v>
       </c>
@@ -30044,7 +30044,7 @@
       <c r="CJ14" s="228"/>
       <c r="CK14" s="228"/>
     </row>
-    <row r="15" spans="1:89" s="228" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:89" s="228" customFormat="1" ht="27.6">
       <c r="A15" s="206" t="s">
         <v>680</v>
       </c>
@@ -30169,7 +30169,7 @@
       <c r="BL15" s="226"/>
       <c r="BM15" s="227"/>
     </row>
-    <row r="16" spans="1:89" s="228" customFormat="1" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:89" s="228" customFormat="1" ht="27.6">
       <c r="A16" s="206" t="s">
         <v>680</v>
       </c>
@@ -30290,7 +30290,7 @@
       <c r="BL16" s="226"/>
       <c r="BM16" s="227"/>
     </row>
-    <row r="17" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A17" s="206" t="s">
         <v>680</v>
       </c>
@@ -30439,7 +30439,7 @@
       <c r="CJ17" s="229"/>
       <c r="CK17" s="229"/>
     </row>
-    <row r="18" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A18" s="206" t="s">
         <v>680</v>
       </c>
@@ -30586,7 +30586,7 @@
       <c r="CJ18" s="229"/>
       <c r="CK18" s="229"/>
     </row>
-    <row r="19" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A19" s="206" t="s">
         <v>680</v>
       </c>
@@ -30733,7 +30733,7 @@
       <c r="CJ19" s="228"/>
       <c r="CK19" s="228"/>
     </row>
-    <row r="20" spans="1:89" s="228" customFormat="1" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:89" s="228" customFormat="1" ht="42.6" customHeight="1">
       <c r="A20" s="206" t="s">
         <v>680</v>
       </c>
@@ -30880,7 +30880,7 @@
       <c r="CJ20" s="229"/>
       <c r="CK20" s="229"/>
     </row>
-    <row r="21" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A21" s="206" t="s">
         <v>680</v>
       </c>
@@ -31003,7 +31003,7 @@
       <c r="BL21" s="226"/>
       <c r="BM21" s="227"/>
     </row>
-    <row r="22" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A22" s="206" t="s">
         <v>680</v>
       </c>
@@ -31126,7 +31126,7 @@
       <c r="BL22" s="226"/>
       <c r="BM22" s="227"/>
     </row>
-    <row r="23" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A23" s="206" t="s">
         <v>680</v>
       </c>
@@ -31273,7 +31273,7 @@
       <c r="CJ23" s="229"/>
       <c r="CK23" s="229"/>
     </row>
-    <row r="24" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A24" s="206" t="s">
         <v>680</v>
       </c>
@@ -31420,7 +31420,7 @@
       <c r="CJ24" s="229"/>
       <c r="CK24" s="229"/>
     </row>
-    <row r="25" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A25" s="206" t="s">
         <v>680</v>
       </c>
@@ -31567,7 +31567,7 @@
       <c r="CJ25" s="229"/>
       <c r="CK25" s="229"/>
     </row>
-    <row r="26" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A26" s="206" t="s">
         <v>680</v>
       </c>
@@ -31714,7 +31714,7 @@
       <c r="CJ26" s="229"/>
       <c r="CK26" s="229"/>
     </row>
-    <row r="27" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A27" s="206" t="s">
         <v>680</v>
       </c>
@@ -31861,7 +31861,7 @@
       <c r="CJ27" s="229"/>
       <c r="CK27" s="229"/>
     </row>
-    <row r="28" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A28" s="206" t="s">
         <v>680</v>
       </c>
@@ -32008,7 +32008,7 @@
       <c r="CJ28" s="229"/>
       <c r="CK28" s="229"/>
     </row>
-    <row r="29" spans="1:89" s="226" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:89" s="226" customFormat="1" ht="41.45">
       <c r="A29" s="206" t="s">
         <v>680</v>
       </c>
@@ -32155,7 +32155,7 @@
       <c r="CJ29" s="233"/>
       <c r="CK29" s="233"/>
     </row>
-    <row r="30" spans="1:89" s="226" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:89" s="226" customFormat="1" ht="41.45">
       <c r="A30" s="206" t="s">
         <v>680</v>
       </c>
@@ -32302,7 +32302,7 @@
       <c r="CJ30" s="233"/>
       <c r="CK30" s="233"/>
     </row>
-    <row r="31" spans="1:89" s="226" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:89" s="226" customFormat="1" ht="41.45">
       <c r="A31" s="206" t="s">
         <v>680</v>
       </c>
@@ -32449,7 +32449,7 @@
       <c r="CJ31" s="233"/>
       <c r="CK31" s="233"/>
     </row>
-    <row r="32" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A32" s="206" t="s">
         <v>680</v>
       </c>
@@ -32596,7 +32596,7 @@
       <c r="CJ32" s="229"/>
       <c r="CK32" s="229"/>
     </row>
-    <row r="33" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A33" s="206" t="s">
         <v>680</v>
       </c>
@@ -32719,7 +32719,7 @@
       <c r="BL33" s="226"/>
       <c r="BM33" s="227"/>
     </row>
-    <row r="34" spans="1:89" s="228" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:89" s="228" customFormat="1" ht="41.45">
       <c r="A34" s="206" t="s">
         <v>680</v>
       </c>
@@ -32842,7 +32842,7 @@
       <c r="BL34" s="226"/>
       <c r="BM34" s="227"/>
     </row>
-    <row r="35" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A35" s="206" t="s">
         <v>680</v>
       </c>
@@ -32991,7 +32991,7 @@
       <c r="CJ35" s="228"/>
       <c r="CK35" s="228"/>
     </row>
-    <row r="36" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A36" s="206" t="s">
         <v>680</v>
       </c>
@@ -33138,7 +33138,7 @@
       <c r="CJ36" s="228"/>
       <c r="CK36" s="228"/>
     </row>
-    <row r="37" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A37" s="206" t="s">
         <v>680</v>
       </c>
@@ -33287,7 +33287,7 @@
       <c r="CJ37" s="228"/>
       <c r="CK37" s="228"/>
     </row>
-    <row r="38" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A38" s="206" t="s">
         <v>680</v>
       </c>
@@ -33434,7 +33434,7 @@
       <c r="CJ38" s="228"/>
       <c r="CK38" s="228"/>
     </row>
-    <row r="39" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A39" s="206" t="s">
         <v>680</v>
       </c>
@@ -33583,7 +33583,7 @@
       <c r="CJ39" s="228"/>
       <c r="CK39" s="228"/>
     </row>
-    <row r="40" spans="1:89" s="235" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:89" s="235" customFormat="1" ht="41.45">
       <c r="A40" s="206" t="s">
         <v>680</v>
       </c>
@@ -33730,7 +33730,7 @@
       <c r="CJ40" s="228"/>
       <c r="CK40" s="228"/>
     </row>
-    <row r="41" spans="1:89" s="239" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:89" s="239" customFormat="1" ht="41.45">
       <c r="A41" s="206" t="s">
         <v>680</v>
       </c>
@@ -33877,7 +33877,7 @@
       <c r="CJ41" s="226"/>
       <c r="CK41" s="226"/>
     </row>
-    <row r="42" spans="1:89" s="239" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:89" s="239" customFormat="1" ht="41.45">
       <c r="A42" s="206" t="s">
         <v>680</v>
       </c>
@@ -34024,7 +34024,7 @@
       <c r="CJ42" s="226"/>
       <c r="CK42" s="226"/>
     </row>
-    <row r="43" spans="1:89" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:89" ht="41.45">
       <c r="A43" s="206" t="s">
         <v>680</v>
       </c>
@@ -34127,7 +34127,7 @@
       <c r="AR43" s="293"/>
       <c r="AS43" s="293"/>
     </row>
-    <row r="44" spans="1:89" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:89" ht="41.45">
       <c r="A44" s="206" t="s">
         <v>680</v>
       </c>
@@ -34233,12 +34233,16 @@
   </sheetData>
   <autoFilter ref="A1:CK1" xr:uid="{81481555-CC8D-496A-8B62-D9F1569CF07D}"/>
   <mergeCells count="28">
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="Q5:R5"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="Q36:R36"/>
+    <mergeCell ref="Q38:R38"/>
+    <mergeCell ref="Q40:R40"/>
+    <mergeCell ref="Q28:R28"/>
+    <mergeCell ref="Q29:R29"/>
+    <mergeCell ref="Q30:R30"/>
+    <mergeCell ref="Q31:R31"/>
+    <mergeCell ref="Q32:R32"/>
+    <mergeCell ref="Q33:R33"/>
     <mergeCell ref="Q27:R27"/>
     <mergeCell ref="Q14:R14"/>
     <mergeCell ref="Q16:R16"/>
@@ -34251,16 +34255,12 @@
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="Q26:R26"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="Q36:R36"/>
-    <mergeCell ref="Q38:R38"/>
-    <mergeCell ref="Q40:R40"/>
-    <mergeCell ref="Q28:R28"/>
-    <mergeCell ref="Q29:R29"/>
-    <mergeCell ref="Q30:R30"/>
-    <mergeCell ref="Q31:R31"/>
-    <mergeCell ref="Q32:R32"/>
-    <mergeCell ref="Q33:R33"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="Q5:R5"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q11:R11"/>
   </mergeCells>
   <conditionalFormatting sqref="P1:R1">
     <cfRule type="expression" dxfId="28" priority="1" stopIfTrue="1">

--- a/01-carga-excel/sqlite/docs/excel-cod.xlsx
+++ b/01-carga-excel/sqlite/docs/excel-cod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E08DCAC3-7FD5-4D7E-9412-48724040E25B}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484BF7F5-D8BB-46FC-95B0-2C8099126380}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="14" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
   <sheets>
     <sheet name="EX00" sheetId="1" r:id="rId1"/>
@@ -6432,8 +6432,8 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+    <sheetView topLeftCell="D26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:T1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -8509,7 +8509,7 @@
   </sheetPr>
   <dimension ref="A1:AS20"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
@@ -10715,10 +10715,10 @@
   <dimension ref="A1:AJ5"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="22.42578125" customWidth="1"/>
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
@@ -10731,7 +10731,7 @@
     <col min="35" max="35" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="41.45">
+    <row r="1" spans="1:36" ht="44.25">
       <c r="A1" s="275" t="s">
         <v>953</v>
       </c>
@@ -11137,8 +11137,8 @@
   </sheetPr>
   <dimension ref="A1:CK7"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.45"/>
@@ -14574,8 +14574,8 @@
   </sheetPr>
   <dimension ref="A1:AS25"/>
   <sheetViews>
-    <sheetView topLeftCell="Q20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T2" sqref="T2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="14.45"/>
@@ -17287,8 +17287,8 @@
   </sheetPr>
   <dimension ref="A1:CK5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -17855,8 +17855,8 @@
   </sheetPr>
   <dimension ref="A1:AS5"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -18003,7 +18003,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="41.45">
+    <row r="2" spans="1:45" ht="27">
       <c r="A2" s="1" t="s">
         <v>194</v>
       </c>
@@ -18364,8 +18364,8 @@
   </sheetPr>
   <dimension ref="A1:CK15"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="G1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -20602,8 +20602,8 @@
   </sheetPr>
   <dimension ref="A1:CK30"/>
   <sheetViews>
-    <sheetView topLeftCell="I21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L23" sqref="K23:L23"/>
+    <sheetView topLeftCell="E25" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="S16" sqref="S16:T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="13.15"/>
@@ -22707,7 +22707,7 @@
       <c r="BL15" s="226"/>
       <c r="BM15" s="227"/>
     </row>
-    <row r="16" spans="1:89" s="228" customFormat="1" ht="110.45">
+    <row r="16" spans="1:89" s="228" customFormat="1" ht="94.5">
       <c r="A16" s="224" t="s">
         <v>318</v>
       </c>
@@ -25853,7 +25853,7 @@
   </sheetPr>
   <dimension ref="A1:CI7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -26547,8 +26547,8 @@
   </sheetPr>
   <dimension ref="A1:AS11"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView topLeftCell="D1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -27346,7 +27346,7 @@
   </sheetPr>
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S7"/>
     </sheetView>
   </sheetViews>
@@ -27997,8 +27997,8 @@
   </sheetPr>
   <dimension ref="A1:CK44"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38.140625" defaultRowHeight="13.15"/>

--- a/01-carga-excel/sqlite/docs/excel-cod.xlsx
+++ b/01-carga-excel/sqlite/docs/excel-cod.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{484BF7F5-D8BB-46FC-95B0-2C8099126380}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE495DEA-9E75-4A44-844E-E0343227F545}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="14" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
   <sheets>
     <sheet name="EX00" sheetId="1" r:id="rId1"/>
@@ -6432,8 +6432,8 @@
   </sheetPr>
   <dimension ref="A1:W32"/>
   <sheetViews>
-    <sheetView topLeftCell="D26" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S1" sqref="S1:T1048576"/>
+    <sheetView topLeftCell="D18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -8366,7 +8366,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="55.15">
+    <row r="31" spans="1:23" ht="53.25">
       <c r="A31" s="4" t="s">
         <v>23</v>
       </c>
@@ -17288,7 +17288,7 @@
   <dimension ref="A1:CK5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>

--- a/01-carga-excel/sqlite/docs/excel-cod.xlsx
+++ b/01-carga-excel/sqlite/docs/excel-cod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmunoz\trabajo\proyectos\LKS\FP\carga-excel-python\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BE495DEA-9E75-4A44-844E-E0343227F545}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{FD160B07-0254-45C5-837A-198D083F8BBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AC0F32A5-D378-47F6-9B73-B4B9CAFC366B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="10" activeTab="10" xr2:uid="{985A6DF8-F51D-4D3E-B1AA-DA801117F226}"/>
   </bookViews>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6253" uniqueCount="1269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6248" uniqueCount="1267">
   <si>
     <t>MODELO</t>
   </si>
@@ -3323,9 +3323,6 @@
     <t xml:space="preserve">COD MEYSS </t>
   </si>
   <si>
-    <t>DURACIÓN máxima</t>
-  </si>
-  <si>
     <t>VIGENTE DESDE</t>
   </si>
   <si>
@@ -3438,9 +3435,6 @@
   </si>
   <si>
     <t>MAN</t>
-  </si>
-  <si>
-    <t>5 años/ condicionada</t>
   </si>
   <si>
     <t>TARJETA DE RESIDENCIA PERMANENTE DE FAMILIAR DE LA UE</t>
@@ -4274,7 +4268,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4470,6 +4464,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4768,7 +4770,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="337">
+  <cellXfs count="338">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -5726,6 +5728,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8510,7 +8513,7 @@
   <dimension ref="A1:AS20"/>
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -10712,10 +10715,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:AJ5"/>
+  <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -10724,14 +10727,13 @@
     <col min="4" max="4" width="48.7109375" customWidth="1"/>
     <col min="5" max="5" width="44.7109375" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
-    <col min="14" max="14" width="22" customWidth="1"/>
-    <col min="31" max="31" width="13" customWidth="1"/>
-    <col min="34" max="34" width="39.42578125" customWidth="1"/>
-    <col min="35" max="35" width="14.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22" customWidth="1"/>
+    <col min="30" max="30" width="13" customWidth="1"/>
+    <col min="33" max="33" width="39.42578125" customWidth="1"/>
+    <col min="34" max="34" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="44.25">
+    <row r="1" spans="1:35" ht="44.25">
       <c r="A1" s="275" t="s">
         <v>953</v>
       </c>
@@ -10768,40 +10770,40 @@
       <c r="L1" s="277" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="27" t="s">
+      <c r="M1" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="N1" s="26" t="s">
-        <v>12</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>958</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="278" t="s">
         <v>960</v>
       </c>
-      <c r="S1" s="278" t="s">
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="27" t="s">
         <v>961</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="27" t="s">
+      <c r="U1" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="27" t="s">
         <v>963</v>
       </c>
-      <c r="W1" s="27" t="s">
+      <c r="W1" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="X1" s="26" t="s">
         <v>965</v>
       </c>
       <c r="Y1" s="26" t="s">
@@ -10810,49 +10812,46 @@
       <c r="Z1" s="26" t="s">
         <v>967</v>
       </c>
-      <c r="AA1" s="26" t="s">
+      <c r="AA1" s="263" t="s">
         <v>968</v>
       </c>
-      <c r="AB1" s="263" t="s">
+      <c r="AB1" s="26" t="s">
         <v>969</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="263" t="s">
         <v>970</v>
       </c>
-      <c r="AD1" s="263" t="s">
+      <c r="AD1" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="AE1" s="263" t="s">
         <v>971</v>
-      </c>
-      <c r="AE1" s="26" t="s">
-        <v>178</v>
       </c>
       <c r="AF1" s="263" t="s">
         <v>972</v>
       </c>
       <c r="AG1" s="263" t="s">
+        <v>181</v>
+      </c>
+      <c r="AH1" s="26" t="s">
         <v>973</v>
       </c>
-      <c r="AH1" s="263" t="s">
-        <v>181</v>
-      </c>
-      <c r="AI1" s="26" t="s">
+      <c r="AI1" s="279" t="s">
         <v>974</v>
       </c>
-      <c r="AJ1" s="279" t="s">
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="280" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2" s="280" t="s">
+      <c r="D2" s="281" t="s">
         <v>976</v>
       </c>
-      <c r="D2" s="281" t="s">
+      <c r="E2" s="282" t="s">
         <v>977</v>
       </c>
-      <c r="E2" s="282" t="s">
+      <c r="F2" s="282" t="s">
         <v>978</v>
-      </c>
-      <c r="F2" s="282" t="s">
-        <v>979</v>
       </c>
       <c r="G2" s="282" t="s">
         <v>27</v>
@@ -10864,64 +10863,61 @@
         <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="K2" s="284" t="s">
         <v>621</v>
       </c>
       <c r="L2" s="284" t="s">
+        <v>980</v>
+      </c>
+      <c r="M2" s="282" t="s">
         <v>981</v>
       </c>
-      <c r="M2" s="282" t="s">
+      <c r="Q2" s="282"/>
+      <c r="S2" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="T2" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="V2" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="W2" t="s">
         <v>277</v>
       </c>
-      <c r="N2" s="282" t="s">
+      <c r="X2" s="282" t="s">
         <v>982</v>
       </c>
-      <c r="R2" s="282"/>
-      <c r="T2" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="282" t="s">
-        <v>363</v>
-      </c>
-      <c r="X2" t="s">
-        <v>277</v>
-      </c>
       <c r="Y2" s="282" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Z2" s="282" t="s">
         <v>983</v>
       </c>
-      <c r="AA2" s="282" t="s">
+      <c r="AB2" s="282" t="s">
         <v>984</v>
       </c>
-      <c r="AC2" s="282" t="s">
+      <c r="AD2" s="282" t="s">
         <v>985</v>
       </c>
-      <c r="AE2" s="282" t="s">
+      <c r="AG2" s="282" t="s">
         <v>986</v>
       </c>
       <c r="AH2" s="282" t="s">
         <v>987</v>
       </c>
-      <c r="AI2" s="282" t="s">
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="280" t="s">
+        <v>975</v>
+      </c>
+      <c r="D3" s="281" t="s">
+        <v>976</v>
+      </c>
+      <c r="E3" s="283" t="s">
         <v>988</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" s="280" t="s">
-        <v>976</v>
-      </c>
-      <c r="D3" s="281" t="s">
-        <v>977</v>
-      </c>
-      <c r="E3" s="283" t="s">
-        <v>989</v>
       </c>
       <c r="G3" s="282" t="s">
         <v>27</v>
@@ -10933,67 +10929,64 @@
         <v>29</v>
       </c>
       <c r="J3" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="K3" s="284" t="s">
         <v>621</v>
       </c>
       <c r="L3" s="285" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M3" s="282" t="s">
+        <v>981</v>
+      </c>
+      <c r="Q3" s="282"/>
+      <c r="S3" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="W3" t="s">
         <v>277</v>
       </c>
-      <c r="N3" s="282" t="s">
+      <c r="X3" s="282" t="s">
         <v>982</v>
       </c>
-      <c r="R3" s="282"/>
-      <c r="T3" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="282" t="s">
-        <v>363</v>
-      </c>
-      <c r="X3" t="s">
-        <v>277</v>
-      </c>
       <c r="Y3" s="282" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Z3" s="282" t="s">
         <v>983</v>
       </c>
-      <c r="AA3" s="282" t="s">
-        <v>984</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>984</v>
-      </c>
-      <c r="AE3" s="282" t="s">
+      <c r="AB3" t="s">
+        <v>983</v>
+      </c>
+      <c r="AD3" s="282" t="s">
+        <v>985</v>
+      </c>
+      <c r="AG3" s="282" t="s">
         <v>986</v>
       </c>
       <c r="AH3" s="282" t="s">
         <v>987</v>
       </c>
-      <c r="AI3" s="282" t="s">
-        <v>988</v>
-      </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:35">
       <c r="A4" s="280" t="s">
+        <v>975</v>
+      </c>
+      <c r="D4" s="281" t="s">
         <v>976</v>
       </c>
-      <c r="D4" s="281" t="s">
-        <v>977</v>
-      </c>
       <c r="E4" s="282" t="s">
+        <v>991</v>
+      </c>
+      <c r="F4" t="s">
         <v>992</v>
-      </c>
-      <c r="F4" t="s">
-        <v>993</v>
       </c>
       <c r="G4" s="282" t="s">
         <v>27</v>
@@ -11005,66 +10998,63 @@
         <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="K4" s="284" t="s">
         <v>621</v>
       </c>
       <c r="L4" s="285" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="M4" s="282" t="s">
-        <v>996</v>
-      </c>
-      <c r="N4" s="282" t="s">
+        <v>981</v>
+      </c>
+      <c r="S4" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="T4" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="W4" t="s">
+        <v>277</v>
+      </c>
+      <c r="X4" s="282" t="s">
         <v>982</v>
       </c>
-      <c r="T4" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="U4" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W4" s="282" t="s">
-        <v>363</v>
-      </c>
-      <c r="X4" t="s">
-        <v>277</v>
-      </c>
       <c r="Y4" s="282" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Z4" s="282" t="s">
         <v>983</v>
       </c>
-      <c r="AA4" s="282" t="s">
-        <v>984</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>984</v>
-      </c>
-      <c r="AE4" s="282" t="s">
+      <c r="AB4" t="s">
+        <v>983</v>
+      </c>
+      <c r="AD4" s="282" t="s">
+        <v>985</v>
+      </c>
+      <c r="AG4" s="282" t="s">
         <v>986</v>
       </c>
       <c r="AH4" s="282" t="s">
         <v>987</v>
       </c>
-      <c r="AI4" s="282" t="s">
-        <v>988</v>
-      </c>
     </row>
-    <row r="5" spans="1:36">
+    <row r="5" spans="1:35">
       <c r="A5" s="280" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D5" s="281" t="s">
+        <v>995</v>
+      </c>
+      <c r="E5" s="282" t="s">
+        <v>996</v>
+      </c>
+      <c r="F5" s="282" t="s">
         <v>997</v>
-      </c>
-      <c r="E5" s="282" t="s">
-        <v>998</v>
-      </c>
-      <c r="F5" s="282" t="s">
-        <v>999</v>
       </c>
       <c r="G5" s="282" t="s">
         <v>131</v>
@@ -11076,53 +11066,53 @@
         <v>29</v>
       </c>
       <c r="J5" t="s">
+        <v>998</v>
+      </c>
+      <c r="K5" s="284" t="s">
+        <v>999</v>
+      </c>
+      <c r="L5" s="284" t="s">
         <v>1000</v>
       </c>
-      <c r="K5" s="284" t="s">
+      <c r="M5" s="282" t="s">
+        <v>981</v>
+      </c>
+      <c r="S5" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="T5" s="282" t="s">
+        <v>38</v>
+      </c>
+      <c r="V5" s="282" t="s">
+        <v>363</v>
+      </c>
+      <c r="W5" t="s">
         <v>1001</v>
       </c>
-      <c r="L5" s="284" t="s">
-        <v>1002</v>
-      </c>
-      <c r="M5" s="282" t="s">
-        <v>1003</v>
-      </c>
-      <c r="N5" s="282" t="s">
+      <c r="X5" s="282" t="s">
         <v>982</v>
       </c>
-      <c r="T5" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="U5" s="282" t="s">
-        <v>38</v>
-      </c>
-      <c r="W5" s="282" t="s">
-        <v>363</v>
-      </c>
-      <c r="X5" t="s">
-        <v>1003</v>
-      </c>
       <c r="Y5" s="282" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="Z5" s="282" t="s">
         <v>983</v>
       </c>
-      <c r="AA5" s="282" t="s">
-        <v>984</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>984</v>
-      </c>
-      <c r="AE5" s="282" t="s">
+      <c r="AB5" t="s">
+        <v>983</v>
+      </c>
+      <c r="AD5" s="282" t="s">
+        <v>985</v>
+      </c>
+      <c r="AG5" s="282" t="s">
         <v>986</v>
       </c>
       <c r="AH5" s="282" t="s">
         <v>987</v>
       </c>
-      <c r="AI5" s="282" t="s">
-        <v>988</v>
-      </c>
+    </row>
+    <row r="12" spans="1:35" ht="15" customHeight="1">
+      <c r="Q12" s="337"/>
     </row>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
@@ -11137,7 +11127,7 @@
   </sheetPr>
   <dimension ref="A1:CK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
@@ -11334,20 +11324,20 @@
     </row>
     <row r="2" spans="1:89" ht="41.45">
       <c r="A2" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B2" s="179" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C2" s="179" t="s">
         <v>399</v>
       </c>
       <c r="D2" s="33" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E2" s="31"/>
       <c r="F2" s="33" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="G2" s="34" t="s">
         <v>27</v>
@@ -11359,13 +11349,13 @@
         <v>29</v>
       </c>
       <c r="J2" s="180" t="s">
+        <v>1006</v>
+      </c>
+      <c r="K2" s="34" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L2" s="34" t="s">
         <v>1008</v>
-      </c>
-      <c r="K2" s="34" t="s">
-        <v>1009</v>
-      </c>
-      <c r="L2" s="34" t="s">
-        <v>1010</v>
       </c>
       <c r="M2" s="34" t="s">
         <v>201</v>
@@ -11379,7 +11369,7 @@
         <v>262</v>
       </c>
       <c r="R2" s="34" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S2" s="34" t="s">
         <v>38</v>
@@ -11416,7 +11406,7 @@
         <v>221</v>
       </c>
       <c r="AE2" s="181" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AF2" s="181" t="s">
         <v>399</v>
@@ -11425,25 +11415,25 @@
         <v>209</v>
       </c>
       <c r="AH2" s="34" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="3" spans="1:89" ht="41.45">
       <c r="A3" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B3" s="179" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C3" s="179" t="s">
         <v>574</v>
       </c>
       <c r="D3" s="33" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="33" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="G3" s="34" t="s">
         <v>27</v>
@@ -11455,13 +11445,13 @@
         <v>29</v>
       </c>
       <c r="J3" s="180" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="K3" s="34" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="L3" s="34" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="M3" s="34" t="s">
         <v>201</v>
@@ -11475,7 +11465,7 @@
         <v>262</v>
       </c>
       <c r="R3" s="34" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S3" s="34" t="s">
         <v>38</v>
@@ -11512,7 +11502,7 @@
         <v>221</v>
       </c>
       <c r="AE3" s="181" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AF3" s="181" t="s">
         <v>574</v>
@@ -11526,20 +11516,20 @@
     </row>
     <row r="4" spans="1:89" ht="41.45">
       <c r="A4" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B4" s="179" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C4" s="179" t="s">
         <v>579</v>
       </c>
       <c r="D4" s="33" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="33" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="G4" s="34" t="s">
         <v>27</v>
@@ -11551,13 +11541,13 @@
         <v>29</v>
       </c>
       <c r="J4" s="180" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="K4" s="34" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="L4" s="34" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M4" s="34" t="s">
         <v>201</v>
@@ -11571,7 +11561,7 @@
         <v>262</v>
       </c>
       <c r="R4" s="34" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S4" s="34" t="s">
         <v>38</v>
@@ -11608,7 +11598,7 @@
         <v>221</v>
       </c>
       <c r="AE4" s="181" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AF4" s="181" t="s">
         <v>579</v>
@@ -11620,20 +11610,20 @@
     </row>
     <row r="5" spans="1:89" ht="41.45">
       <c r="A5" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B5" s="179" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="C5" s="179" t="s">
         <v>879</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="33" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="G5" s="34" t="s">
         <v>27</v>
@@ -11645,13 +11635,13 @@
         <v>29</v>
       </c>
       <c r="J5" s="180" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="K5" s="34" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="L5" s="34" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="M5" s="34" t="s">
         <v>201</v>
@@ -11665,7 +11655,7 @@
         <v>262</v>
       </c>
       <c r="R5" s="34" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S5" s="34" t="s">
         <v>38</v>
@@ -11702,7 +11692,7 @@
         <v>221</v>
       </c>
       <c r="AE5" s="181" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="AF5" s="181" t="s">
         <v>879</v>
@@ -11714,20 +11704,20 @@
     </row>
     <row r="6" spans="1:89" ht="41.45">
       <c r="A6" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B6" s="179" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C6" s="179" t="s">
         <v>399</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E6" s="31"/>
       <c r="F6" s="33" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>298</v>
@@ -11739,13 +11729,13 @@
         <v>131</v>
       </c>
       <c r="J6" s="180" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K6" s="34" t="s">
+        <v>1024</v>
+      </c>
+      <c r="L6" s="34" t="s">
         <v>1025</v>
-      </c>
-      <c r="K6" s="34" t="s">
-        <v>1026</v>
-      </c>
-      <c r="L6" s="34" t="s">
-        <v>1027</v>
       </c>
       <c r="M6" s="34" t="s">
         <v>201</v>
@@ -11759,7 +11749,7 @@
         <v>262</v>
       </c>
       <c r="R6" s="34" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S6" s="34" t="s">
         <v>38</v>
@@ -11796,7 +11786,7 @@
         <v>221</v>
       </c>
       <c r="AE6" s="181" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="AF6" s="181" t="s">
         <v>399</v>
@@ -11810,20 +11800,20 @@
     </row>
     <row r="7" spans="1:89" ht="41.45">
       <c r="A7" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B7" s="179" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="C7" s="179" t="s">
         <v>399</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="E7" s="31"/>
       <c r="F7" s="33" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="G7" s="34" t="s">
         <v>27</v>
@@ -11835,13 +11825,13 @@
         <v>29</v>
       </c>
       <c r="J7" s="180" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K7" s="34" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L7" s="34" t="s">
         <v>1031</v>
-      </c>
-      <c r="K7" s="34" t="s">
-        <v>1032</v>
-      </c>
-      <c r="L7" s="34" t="s">
-        <v>1033</v>
       </c>
       <c r="M7" s="34" t="s">
         <v>201</v>
@@ -11855,7 +11845,7 @@
         <v>262</v>
       </c>
       <c r="R7" s="34" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="S7" s="34" t="s">
         <v>38</v>
@@ -11892,7 +11882,7 @@
         <v>221</v>
       </c>
       <c r="AE7" s="181" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="AF7" s="181" t="s">
         <v>399</v>
@@ -12070,15 +12060,15 @@
     </row>
     <row r="2" spans="1:45" ht="41.45">
       <c r="A2" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B2" s="185"/>
       <c r="C2" s="185"/>
       <c r="D2" s="186" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E2" s="175" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="F2" s="186"/>
       <c r="G2" s="187" t="s">
@@ -12091,16 +12081,16 @@
         <v>29</v>
       </c>
       <c r="J2" s="52" t="s">
+        <v>1035</v>
+      </c>
+      <c r="K2" s="54" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L2" s="54" t="s">
         <v>1037</v>
       </c>
-      <c r="K2" s="54" t="s">
+      <c r="M2" s="187" t="s">
         <v>1038</v>
-      </c>
-      <c r="L2" s="54" t="s">
-        <v>1039</v>
-      </c>
-      <c r="M2" s="187" t="s">
-        <v>1040</v>
       </c>
       <c r="N2" s="188">
         <v>45797</v>
@@ -12118,7 +12108,7 @@
         <v>34</v>
       </c>
       <c r="S2" s="52" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="T2" s="52" t="s">
         <v>38</v>
@@ -12127,13 +12117,13 @@
         <v>34</v>
       </c>
       <c r="V2" s="190" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="W2" s="191" t="s">
         <v>277</v>
       </c>
       <c r="X2" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y2" s="187" t="s">
         <v>611</v>
@@ -12154,7 +12144,7 @@
         <v>617</v>
       </c>
       <c r="AE2" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF2" s="52" t="s">
         <v>34</v>
@@ -12175,15 +12165,15 @@
     </row>
     <row r="3" spans="1:45" ht="41.45">
       <c r="A3" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B3" s="185"/>
       <c r="C3" s="185"/>
       <c r="D3" s="186" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="E3" s="175" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="F3" s="186"/>
       <c r="G3" s="187" t="s">
@@ -12196,16 +12186,16 @@
         <v>29</v>
       </c>
       <c r="J3" s="52" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="K3" s="54" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>1045</v>
+      </c>
+      <c r="M3" s="187" t="s">
         <v>1038</v>
-      </c>
-      <c r="L3" s="47" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M3" s="187" t="s">
-        <v>1040</v>
       </c>
       <c r="N3" s="188">
         <v>45797</v>
@@ -12223,7 +12213,7 @@
         <v>34</v>
       </c>
       <c r="S3" s="52" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="T3" s="52" t="s">
         <v>38</v>
@@ -12232,13 +12222,13 @@
         <v>34</v>
       </c>
       <c r="V3" s="192" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="W3" s="191" t="s">
         <v>277</v>
       </c>
       <c r="X3" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y3" s="187" t="s">
         <v>611</v>
@@ -12259,7 +12249,7 @@
         <v>617</v>
       </c>
       <c r="AE3" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF3" s="52" t="s">
         <v>34</v>
@@ -12280,15 +12270,15 @@
     </row>
     <row r="4" spans="1:45" ht="39.6">
       <c r="A4" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B4" s="185"/>
       <c r="C4" s="185"/>
       <c r="D4" s="186" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="E4" s="175" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="F4" s="186"/>
       <c r="G4" s="187" t="s">
@@ -12301,16 +12291,16 @@
         <v>29</v>
       </c>
       <c r="J4" s="52" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K4" s="54" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L4" s="54" t="s">
         <v>1051</v>
       </c>
-      <c r="K4" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L4" s="54" t="s">
-        <v>1053</v>
-      </c>
       <c r="M4" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N4" s="188">
         <v>45797</v>
@@ -12319,13 +12309,13 @@
         <v>410900</v>
       </c>
       <c r="P4" s="52" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q4" s="193" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R4" s="193" t="s">
         <v>1054</v>
-      </c>
-      <c r="Q4" s="193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R4" s="193" t="s">
-        <v>1056</v>
       </c>
       <c r="S4" s="330" t="s">
         <v>38</v>
@@ -12340,7 +12330,7 @@
         <v>53</v>
       </c>
       <c r="W4" s="191" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="X4" s="180" t="s">
         <v>38</v>
@@ -12364,7 +12354,7 @@
         <v>617</v>
       </c>
       <c r="AE4" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF4" s="52" t="s">
         <v>34</v>
@@ -12385,15 +12375,15 @@
     </row>
     <row r="5" spans="1:45" ht="39.6">
       <c r="A5" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B5" s="185"/>
       <c r="C5" s="185"/>
       <c r="D5" s="186" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E5" s="175" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="F5" s="186"/>
       <c r="G5" s="187" t="s">
@@ -12406,16 +12396,16 @@
         <v>29</v>
       </c>
       <c r="J5" s="52" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="K5" s="54" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L5" s="54" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="M5" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N5" s="188">
         <v>45797</v>
@@ -12424,13 +12414,13 @@
         <v>410900</v>
       </c>
       <c r="P5" s="52" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q5" s="193" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="R5" s="193" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="S5" s="330" t="s">
         <v>38</v>
@@ -12445,7 +12435,7 @@
         <v>53</v>
       </c>
       <c r="W5" s="191" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="X5" s="180" t="s">
         <v>38</v>
@@ -12469,7 +12459,7 @@
         <v>617</v>
       </c>
       <c r="AE5" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF5" s="52" t="s">
         <v>34</v>
@@ -12490,15 +12480,15 @@
     </row>
     <row r="6" spans="1:45" ht="66">
       <c r="A6" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B6" s="185"/>
       <c r="C6" s="185"/>
       <c r="D6" s="186" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E6" s="175" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F6" s="186"/>
       <c r="G6" s="187" t="s">
@@ -12511,16 +12501,16 @@
         <v>29</v>
       </c>
       <c r="J6" s="52" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="K6" s="54" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L6" s="54" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="M6" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N6" s="188">
         <v>45797</v>
@@ -12529,16 +12519,16 @@
         <v>410900</v>
       </c>
       <c r="P6" s="52" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q6" s="193" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R6" s="193" t="s">
         <v>1054</v>
       </c>
-      <c r="Q6" s="193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R6" s="193" t="s">
-        <v>1056</v>
-      </c>
       <c r="S6" s="52" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="T6" s="52" t="s">
         <v>38</v>
@@ -12550,7 +12540,7 @@
         <v>53</v>
       </c>
       <c r="W6" s="194" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="X6" s="180" t="s">
         <v>38</v>
@@ -12574,7 +12564,7 @@
         <v>617</v>
       </c>
       <c r="AE6" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF6" s="52" t="s">
         <v>34</v>
@@ -12595,15 +12585,15 @@
     </row>
     <row r="7" spans="1:45" ht="66">
       <c r="A7" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B7" s="185"/>
       <c r="C7" s="185"/>
       <c r="D7" s="186" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E7" s="175" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="F7" s="186"/>
       <c r="G7" s="187" t="s">
@@ -12616,16 +12606,16 @@
         <v>29</v>
       </c>
       <c r="J7" s="52" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="K7" s="54" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L7" s="54" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="M7" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N7" s="188">
         <v>45797</v>
@@ -12634,16 +12624,16 @@
         <v>410900</v>
       </c>
       <c r="P7" s="52" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q7" s="193" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="R7" s="193" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="S7" s="52" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="T7" s="52" t="s">
         <v>38</v>
@@ -12655,7 +12645,7 @@
         <v>53</v>
       </c>
       <c r="W7" s="194" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="X7" s="180" t="s">
         <v>38</v>
@@ -12679,7 +12669,7 @@
         <v>617</v>
       </c>
       <c r="AE7" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF7" s="52" t="s">
         <v>34</v>
@@ -12700,19 +12690,19 @@
     </row>
     <row r="8" spans="1:45" ht="41.45">
       <c r="A8" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B8" s="185"/>
       <c r="C8" s="185"/>
       <c r="D8" s="186" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E8" s="175" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F8" s="186"/>
       <c r="G8" s="187" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H8" s="187" t="s">
         <v>215</v>
@@ -12721,16 +12711,16 @@
         <v>29</v>
       </c>
       <c r="J8" s="52" t="s">
+        <v>1052</v>
+      </c>
+      <c r="K8" s="54" t="s">
+        <v>1053</v>
+      </c>
+      <c r="L8" s="54" t="s">
         <v>1054</v>
       </c>
-      <c r="K8" s="54" t="s">
-        <v>1055</v>
-      </c>
-      <c r="L8" s="54" t="s">
-        <v>1056</v>
-      </c>
       <c r="M8" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N8" s="188">
         <v>45797</v>
@@ -12739,16 +12729,16 @@
         <v>410900</v>
       </c>
       <c r="P8" s="52" t="s">
+        <v>1052</v>
+      </c>
+      <c r="Q8" s="193" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R8" s="193" t="s">
         <v>1054</v>
       </c>
-      <c r="Q8" s="193" t="s">
-        <v>1055</v>
-      </c>
-      <c r="R8" s="193" t="s">
-        <v>1056</v>
-      </c>
       <c r="S8" s="330" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="T8" s="52" t="s">
         <v>38</v>
@@ -12760,7 +12750,7 @@
         <v>53</v>
       </c>
       <c r="W8" s="191" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="X8" s="180" t="s">
         <v>38</v>
@@ -12784,7 +12774,7 @@
         <v>617</v>
       </c>
       <c r="AE8" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF8" s="52" t="s">
         <v>34</v>
@@ -12805,19 +12795,19 @@
     </row>
     <row r="9" spans="1:45" ht="41.45">
       <c r="A9" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B9" s="185"/>
       <c r="C9" s="185"/>
       <c r="D9" s="186" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="E9" s="175" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="F9" s="186"/>
       <c r="G9" s="187" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="H9" s="187" t="s">
         <v>215</v>
@@ -12826,16 +12816,16 @@
         <v>29</v>
       </c>
       <c r="J9" s="52" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="K9" s="54" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="L9" s="54" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="M9" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N9" s="188">
         <v>45797</v>
@@ -12844,16 +12834,16 @@
         <v>410900</v>
       </c>
       <c r="P9" s="52" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="Q9" s="193" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="R9" s="193" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="S9" s="330" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="T9" s="52" t="s">
         <v>38</v>
@@ -12865,7 +12855,7 @@
         <v>53</v>
       </c>
       <c r="W9" s="191" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="X9" s="180" t="s">
         <v>38</v>
@@ -12889,7 +12879,7 @@
         <v>617</v>
       </c>
       <c r="AE9" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF9" s="52" t="s">
         <v>34</v>
@@ -12910,15 +12900,15 @@
     </row>
     <row r="10" spans="1:45" ht="39.6">
       <c r="A10" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B10" s="185"/>
       <c r="C10" s="185"/>
       <c r="D10" s="186" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E10" s="175" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="F10" s="186"/>
       <c r="G10" s="187" t="s">
@@ -12931,16 +12921,16 @@
         <v>29</v>
       </c>
       <c r="J10" s="52" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="K10" s="54" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L10" s="54" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M10" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N10" s="188">
         <v>45797</v>
@@ -12970,7 +12960,7 @@
         <v>53</v>
       </c>
       <c r="W10" s="191" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="X10" s="180" t="s">
         <v>38</v>
@@ -12994,7 +12984,7 @@
         <v>617</v>
       </c>
       <c r="AE10" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF10" s="52" t="s">
         <v>34</v>
@@ -13015,15 +13005,15 @@
     </row>
     <row r="11" spans="1:45" ht="41.45">
       <c r="A11" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B11" s="185"/>
       <c r="C11" s="185"/>
       <c r="D11" s="186" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E11" s="175" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="F11" s="186"/>
       <c r="G11" s="187" t="s">
@@ -13036,16 +13026,16 @@
         <v>29</v>
       </c>
       <c r="J11" s="52" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="K11" s="54" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L11" s="54" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="M11" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N11" s="188">
         <v>45797</v>
@@ -13075,7 +13065,7 @@
         <v>53</v>
       </c>
       <c r="W11" s="191" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="X11" s="180" t="s">
         <v>38</v>
@@ -13099,7 +13089,7 @@
         <v>617</v>
       </c>
       <c r="AE11" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF11" s="52" t="s">
         <v>34</v>
@@ -13120,15 +13110,15 @@
     </row>
     <row r="12" spans="1:45" ht="39.6">
       <c r="A12" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B12" s="185"/>
       <c r="C12" s="185"/>
       <c r="D12" s="186" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E12" s="175" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="F12" s="186"/>
       <c r="G12" s="187" t="s">
@@ -13141,16 +13131,16 @@
         <v>29</v>
       </c>
       <c r="J12" s="52" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="K12" s="54" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="L12" s="54" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="M12" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N12" s="188">
         <v>45797</v>
@@ -13180,7 +13170,7 @@
         <v>53</v>
       </c>
       <c r="W12" s="191" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="X12" s="180" t="s">
         <v>38</v>
@@ -13204,7 +13194,7 @@
         <v>617</v>
       </c>
       <c r="AE12" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF12" s="52" t="s">
         <v>34</v>
@@ -13225,15 +13215,15 @@
     </row>
     <row r="13" spans="1:45" ht="39.6">
       <c r="A13" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B13" s="195"/>
       <c r="C13" s="195"/>
       <c r="D13" s="186" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="E13" s="175" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F13" s="196"/>
       <c r="G13" s="197" t="s">
@@ -13242,16 +13232,16 @@
       <c r="H13" s="197"/>
       <c r="I13" s="197"/>
       <c r="J13" s="100" t="s">
+        <v>1086</v>
+      </c>
+      <c r="K13" s="54" t="s">
+        <v>1050</v>
+      </c>
+      <c r="L13" s="54" t="s">
+        <v>1087</v>
+      </c>
+      <c r="M13" s="197" t="s">
         <v>1088</v>
-      </c>
-      <c r="K13" s="54" t="s">
-        <v>1052</v>
-      </c>
-      <c r="L13" s="54" t="s">
-        <v>1089</v>
-      </c>
-      <c r="M13" s="197" t="s">
-        <v>1090</v>
       </c>
       <c r="N13" s="198">
         <v>45797</v>
@@ -13305,7 +13295,7 @@
         <v>617</v>
       </c>
       <c r="AE13" s="100" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF13" s="100" t="s">
         <v>34</v>
@@ -13326,18 +13316,18 @@
     </row>
     <row r="14" spans="1:45" ht="79.150000000000006">
       <c r="A14" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B14" s="185"/>
       <c r="C14" s="185"/>
       <c r="D14" s="186" t="s">
+        <v>1089</v>
+      </c>
+      <c r="E14" s="301" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F14" s="302" t="s">
         <v>1091</v>
-      </c>
-      <c r="E14" s="301" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F14" s="302" t="s">
-        <v>1093</v>
       </c>
       <c r="G14" s="187" t="s">
         <v>27</v>
@@ -13349,16 +13339,16 @@
         <v>29</v>
       </c>
       <c r="J14" s="52" t="s">
+        <v>1092</v>
+      </c>
+      <c r="K14" s="54" t="s">
+        <v>1093</v>
+      </c>
+      <c r="L14" s="54" t="s">
         <v>1094</v>
       </c>
-      <c r="K14" s="54" t="s">
-        <v>1095</v>
-      </c>
-      <c r="L14" s="54" t="s">
-        <v>1096</v>
-      </c>
       <c r="M14" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N14" s="188">
         <v>45797</v>
@@ -13367,13 +13357,13 @@
         <v>410900</v>
       </c>
       <c r="P14" s="52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="Q14" s="187" t="s">
+        <v>1096</v>
+      </c>
+      <c r="R14" s="187" t="s">
         <v>1097</v>
-      </c>
-      <c r="Q14" s="187" t="s">
-        <v>1098</v>
-      </c>
-      <c r="R14" s="187" t="s">
-        <v>1099</v>
       </c>
       <c r="S14" s="52" t="s">
         <v>38</v>
@@ -13385,13 +13375,13 @@
         <v>34</v>
       </c>
       <c r="V14" s="190" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W14" s="191" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="X14" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y14" s="187" t="s">
         <v>611</v>
@@ -13412,7 +13402,7 @@
         <v>617</v>
       </c>
       <c r="AE14" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF14" s="52" t="s">
         <v>34</v>
@@ -13433,18 +13423,18 @@
     </row>
     <row r="15" spans="1:45" ht="57.6">
       <c r="A15" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B15" s="185"/>
       <c r="C15" s="185"/>
       <c r="D15" s="186" t="s">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="302" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F15" s="300" t="s">
         <v>1102</v>
-      </c>
-      <c r="E15" s="302" t="s">
-        <v>1103</v>
-      </c>
-      <c r="F15" s="300" t="s">
-        <v>1104</v>
       </c>
       <c r="G15" s="187" t="s">
         <v>298</v>
@@ -13456,16 +13446,16 @@
         <v>131</v>
       </c>
       <c r="J15" s="52" t="s">
+        <v>1095</v>
+      </c>
+      <c r="K15" s="54" t="s">
+        <v>1103</v>
+      </c>
+      <c r="L15" s="54" t="s">
         <v>1097</v>
       </c>
-      <c r="K15" s="54" t="s">
-        <v>1105</v>
-      </c>
-      <c r="L15" s="54" t="s">
-        <v>1099</v>
-      </c>
       <c r="M15" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N15" s="188">
         <v>45797</v>
@@ -13492,13 +13482,13 @@
         <v>34</v>
       </c>
       <c r="V15" s="190" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W15" s="191" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="X15" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y15" s="187" t="s">
         <v>611</v>
@@ -13519,7 +13509,7 @@
         <v>617</v>
       </c>
       <c r="AE15" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF15" s="52" t="s">
         <v>34</v>
@@ -13540,15 +13530,15 @@
     </row>
     <row r="16" spans="1:45" ht="39.6">
       <c r="A16" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B16" s="185"/>
       <c r="C16" s="185"/>
       <c r="D16" s="186" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E16" s="186" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F16" s="185"/>
       <c r="G16" s="187" t="s">
@@ -13561,16 +13551,16 @@
         <v>131</v>
       </c>
       <c r="J16" s="52" t="s">
+        <v>1107</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>1108</v>
+      </c>
+      <c r="L16" s="54" t="s">
         <v>1109</v>
       </c>
-      <c r="K16" s="54" t="s">
-        <v>1110</v>
-      </c>
-      <c r="L16" s="54" t="s">
-        <v>1111</v>
-      </c>
       <c r="M16" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N16" s="188">
         <v>45797</v>
@@ -13588,7 +13578,7 @@
         <v>34</v>
       </c>
       <c r="S16" s="52" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="T16" s="52" t="s">
         <v>38</v>
@@ -13597,13 +13587,13 @@
         <v>34</v>
       </c>
       <c r="V16" s="190" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W16" s="191" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="X16" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y16" s="187" t="s">
         <v>611</v>
@@ -13624,7 +13614,7 @@
         <v>617</v>
       </c>
       <c r="AE16" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF16" s="52" t="s">
         <v>34</v>
@@ -13645,15 +13635,15 @@
     </row>
     <row r="17" spans="1:45" ht="39.6">
       <c r="A17" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B17" s="185"/>
       <c r="C17" s="185"/>
       <c r="D17" s="186" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="E17" s="186" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="F17" s="185"/>
       <c r="G17" s="187" t="s">
@@ -13666,16 +13656,16 @@
         <v>131</v>
       </c>
       <c r="J17" s="52" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="K17" s="54" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="L17" s="54" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="M17" s="187" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N17" s="188">
         <v>45798</v>
@@ -13693,7 +13683,7 @@
         <v>34</v>
       </c>
       <c r="S17" s="52" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="T17" s="52" t="s">
         <v>38</v>
@@ -13702,13 +13692,13 @@
         <v>34</v>
       </c>
       <c r="V17" s="190" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W17" s="191" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="X17" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y17" s="187" t="s">
         <v>611</v>
@@ -13729,7 +13719,7 @@
         <v>617</v>
       </c>
       <c r="AE17" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF17" s="52" t="s">
         <v>34</v>
@@ -13750,15 +13740,15 @@
     </row>
     <row r="18" spans="1:45" ht="39.6">
       <c r="A18" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B18" s="185"/>
       <c r="C18" s="185"/>
       <c r="D18" s="186" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E18" s="186" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F18" s="185"/>
       <c r="G18" s="187" t="s">
@@ -13771,16 +13761,16 @@
         <v>29</v>
       </c>
       <c r="J18" s="52" t="s">
+        <v>1116</v>
+      </c>
+      <c r="K18" s="54" t="s">
+        <v>1117</v>
+      </c>
+      <c r="L18" s="54" t="s">
         <v>1118</v>
       </c>
-      <c r="K18" s="54" t="s">
-        <v>1119</v>
-      </c>
-      <c r="L18" s="54" t="s">
-        <v>1120</v>
-      </c>
       <c r="M18" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N18" s="188">
         <v>45797</v>
@@ -13789,16 +13779,16 @@
         <v>410900</v>
       </c>
       <c r="P18" s="52" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q18" s="187" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R18" s="187" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S18" s="52" t="s">
         <v>1121</v>
-      </c>
-      <c r="Q18" s="187" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R18" s="187" t="s">
-        <v>1122</v>
-      </c>
-      <c r="S18" s="52" t="s">
-        <v>1123</v>
       </c>
       <c r="T18" s="52" t="s">
         <v>38</v>
@@ -13807,13 +13797,13 @@
         <v>34</v>
       </c>
       <c r="V18" s="190" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W18" s="191" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="X18" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y18" s="187" t="s">
         <v>611</v>
@@ -13834,7 +13824,7 @@
         <v>617</v>
       </c>
       <c r="AE18" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF18" s="52" t="s">
         <v>34</v>
@@ -13855,15 +13845,15 @@
     </row>
     <row r="19" spans="1:45" ht="39.6">
       <c r="A19" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B19" s="185"/>
       <c r="C19" s="185"/>
       <c r="D19" s="186" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E19" s="186" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F19" s="185"/>
       <c r="G19" s="187" t="s">
@@ -13876,16 +13866,16 @@
         <v>29</v>
       </c>
       <c r="J19" s="52" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="K19" s="54" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="L19" s="54" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="M19" s="187" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="N19" s="188">
         <v>45797</v>
@@ -13894,16 +13884,16 @@
         <v>410900</v>
       </c>
       <c r="P19" s="52" t="s">
+        <v>1119</v>
+      </c>
+      <c r="Q19" s="187" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R19" s="187" t="s">
+        <v>1120</v>
+      </c>
+      <c r="S19" s="52" t="s">
         <v>1121</v>
-      </c>
-      <c r="Q19" s="187" t="s">
-        <v>1119</v>
-      </c>
-      <c r="R19" s="187" t="s">
-        <v>1122</v>
-      </c>
-      <c r="S19" s="52" t="s">
-        <v>1123</v>
       </c>
       <c r="T19" s="52" t="s">
         <v>38</v>
@@ -13912,13 +13902,13 @@
         <v>34</v>
       </c>
       <c r="V19" s="190" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W19" s="191" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="X19" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y19" s="187" t="s">
         <v>611</v>
@@ -13939,7 +13929,7 @@
         <v>617</v>
       </c>
       <c r="AE19" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF19" s="52" t="s">
         <v>34</v>
@@ -13960,15 +13950,15 @@
     </row>
     <row r="20" spans="1:45" ht="39.6">
       <c r="A20" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B20" s="185"/>
       <c r="C20" s="185"/>
       <c r="D20" s="186" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="E20" s="186" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="F20" s="185"/>
       <c r="G20" s="187" t="s">
@@ -13981,16 +13971,16 @@
         <v>131</v>
       </c>
       <c r="J20" s="52" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="K20" s="54" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="L20" s="54" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="M20" s="187" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="N20" s="188">
         <v>45797</v>
@@ -13999,13 +13989,13 @@
         <v>410900</v>
       </c>
       <c r="P20" s="52" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="Q20" s="187" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="R20" s="187" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="S20" s="52" t="s">
         <v>695</v>
@@ -14017,13 +14007,13 @@
         <v>34</v>
       </c>
       <c r="V20" s="190" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="W20" s="191" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="X20" s="187" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="Y20" s="187" t="s">
         <v>611</v>
@@ -14044,7 +14034,7 @@
         <v>617</v>
       </c>
       <c r="AE20" s="52" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="AF20" s="52" t="s">
         <v>34</v>
@@ -14065,19 +14055,19 @@
     </row>
     <row r="21" spans="1:45" ht="55.15">
       <c r="A21" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B21" s="173">
         <v>1120</v>
       </c>
       <c r="C21" s="78" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D21" s="173" t="s">
+        <v>1127</v>
+      </c>
+      <c r="E21" s="33" t="s">
         <v>1128</v>
-      </c>
-      <c r="D21" s="173" t="s">
-        <v>1129</v>
-      </c>
-      <c r="E21" s="33" t="s">
-        <v>1130</v>
       </c>
       <c r="F21" s="200"/>
       <c r="G21" s="201" t="s">
@@ -14090,13 +14080,13 @@
         <v>29</v>
       </c>
       <c r="J21" s="52" t="s">
+        <v>1129</v>
+      </c>
+      <c r="K21" s="292" t="s">
+        <v>1130</v>
+      </c>
+      <c r="L21" s="54" t="s">
         <v>1131</v>
-      </c>
-      <c r="K21" s="292" t="s">
-        <v>1132</v>
-      </c>
-      <c r="L21" s="54" t="s">
-        <v>1133</v>
       </c>
       <c r="M21" s="36" t="s">
         <v>926</v>
@@ -14143,19 +14133,19 @@
         <v>221</v>
       </c>
       <c r="AE21" s="34" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AF21" s="34" t="s">
         <v>879</v>
       </c>
       <c r="AG21" s="34" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AH21" s="34" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AI21" s="34" t="s">
         <v>1135</v>
-      </c>
-      <c r="AH21" s="34" t="s">
-        <v>1136</v>
-      </c>
-      <c r="AI21" s="34" t="s">
-        <v>1137</v>
       </c>
       <c r="AJ21" s="34"/>
       <c r="AK21" s="34"/>
@@ -14170,17 +14160,17 @@
     </row>
     <row r="22" spans="1:45" ht="55.15">
       <c r="A22" s="184" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B22" s="173">
         <v>1121</v>
       </c>
       <c r="C22" s="203"/>
       <c r="D22" s="173" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="F22" s="200"/>
       <c r="G22" s="201" t="s">
@@ -14193,13 +14183,13 @@
         <v>29</v>
       </c>
       <c r="J22" s="52" t="s">
+        <v>1138</v>
+      </c>
+      <c r="K22" s="292" t="s">
+        <v>1139</v>
+      </c>
+      <c r="L22" s="54" t="s">
         <v>1140</v>
-      </c>
-      <c r="K22" s="292" t="s">
-        <v>1141</v>
-      </c>
-      <c r="L22" s="54" t="s">
-        <v>1142</v>
       </c>
       <c r="M22" s="36" t="s">
         <v>926</v>
@@ -14248,16 +14238,16 @@
         <v>221</v>
       </c>
       <c r="AE22" s="34" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="AF22" s="34" t="s">
         <v>885</v>
       </c>
       <c r="AG22" s="34" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AH22" s="34" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AI22" s="34">
         <v>77</v>
@@ -14275,28 +14265,28 @@
     </row>
     <row r="23" spans="1:45" ht="27.6">
       <c r="A23" s="203" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B23" s="173"/>
       <c r="C23" s="203"/>
       <c r="D23" s="173" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E23" s="33" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="201"/>
       <c r="H23" s="36"/>
       <c r="I23" s="201"/>
       <c r="J23" s="52" t="s">
+        <v>1144</v>
+      </c>
+      <c r="K23" s="36" t="s">
+        <v>1145</v>
+      </c>
+      <c r="L23" s="54" t="s">
         <v>1146</v>
-      </c>
-      <c r="K23" s="36" t="s">
-        <v>1147</v>
-      </c>
-      <c r="L23" s="54" t="s">
-        <v>1148</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="84"/>
@@ -14336,28 +14326,28 @@
     </row>
     <row r="24" spans="1:45">
       <c r="A24" s="203" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B24" s="173"/>
       <c r="C24" s="203"/>
       <c r="D24" s="173" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E24" s="33" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F24" s="33"/>
       <c r="G24" s="201"/>
       <c r="H24" s="36"/>
       <c r="I24" s="201"/>
       <c r="J24" s="52" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="K24" s="36" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="L24" s="54" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="M24" s="36"/>
       <c r="N24" s="84"/>
@@ -14397,28 +14387,28 @@
     </row>
     <row r="25" spans="1:45" ht="27.6">
       <c r="A25" s="203" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B25" s="173"/>
       <c r="C25" s="203"/>
       <c r="D25" s="173" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="E25" s="33" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F25" s="33"/>
       <c r="G25" s="201"/>
       <c r="H25" s="36"/>
       <c r="I25" s="201"/>
       <c r="J25" s="52" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="K25" s="36" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="L25" s="54" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="M25" s="36"/>
       <c r="N25" s="84"/>
@@ -14458,17 +14448,17 @@
     </row>
     <row r="26" spans="1:45" ht="55.15">
       <c r="A26" s="203" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="B26" s="173">
         <v>131</v>
       </c>
       <c r="C26" s="203"/>
       <c r="D26" s="173" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="E26" s="33" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="F26" s="33"/>
       <c r="G26" s="201" t="s">
@@ -14481,13 +14471,13 @@
         <v>38</v>
       </c>
       <c r="J26" s="52" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K26" s="36" t="s">
+        <v>1156</v>
+      </c>
+      <c r="L26" s="54" t="s">
         <v>1157</v>
-      </c>
-      <c r="K26" s="36" t="s">
-        <v>1158</v>
-      </c>
-      <c r="L26" s="54" t="s">
-        <v>1159</v>
       </c>
       <c r="M26" s="36" t="s">
         <v>926</v>
@@ -14536,10 +14526,10 @@
       <c r="AE26" s="34"/>
       <c r="AF26" s="34"/>
       <c r="AG26" s="34" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="AH26" s="34" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="AI26" s="34">
         <v>77</v>
@@ -14728,18 +14718,18 @@
     </row>
     <row r="2" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A2" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B2" s="306"/>
       <c r="C2" s="307"/>
       <c r="D2" s="308" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E2" s="309" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F2" s="310" t="s">
         <v>1161</v>
-      </c>
-      <c r="E2" s="309" t="s">
-        <v>1162</v>
-      </c>
-      <c r="F2" s="310" t="s">
-        <v>1163</v>
       </c>
       <c r="G2" s="307" t="s">
         <v>567</v>
@@ -14751,13 +14741,13 @@
         <v>29</v>
       </c>
       <c r="J2" s="311" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K2" s="312" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L2" s="313" t="s">
         <v>1164</v>
-      </c>
-      <c r="K2" s="312" t="s">
-        <v>1165</v>
-      </c>
-      <c r="L2" s="313" t="s">
-        <v>1166</v>
       </c>
       <c r="M2" s="307" t="s">
         <v>201</v>
@@ -14772,13 +14762,13 @@
       <c r="Q2" s="307"/>
       <c r="R2" s="306"/>
       <c r="S2" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T2" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U2" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V2" s="315" t="s">
         <v>236</v>
@@ -14806,7 +14796,7 @@
         <v>331</v>
       </c>
       <c r="AE2" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF2" s="306" t="s">
         <v>399</v>
@@ -14815,10 +14805,10 @@
         <v>209</v>
       </c>
       <c r="AH2" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI2" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ2" s="306" t="s">
         <v>336</v>
@@ -14839,18 +14829,18 @@
     </row>
     <row r="3" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A3" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B3" s="307"/>
       <c r="C3" s="307"/>
       <c r="D3" s="308" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="E3" s="309" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="F3" s="310" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
       <c r="G3" s="307" t="s">
         <v>567</v>
@@ -14862,13 +14852,13 @@
         <v>29</v>
       </c>
       <c r="J3" s="311" t="s">
+        <v>1172</v>
+      </c>
+      <c r="K3" s="306" t="s">
+        <v>1173</v>
+      </c>
+      <c r="L3" s="307" t="s">
         <v>1174</v>
-      </c>
-      <c r="K3" s="306" t="s">
-        <v>1175</v>
-      </c>
-      <c r="L3" s="307" t="s">
-        <v>1176</v>
       </c>
       <c r="M3" s="307" t="s">
         <v>201</v>
@@ -14883,13 +14873,13 @@
       <c r="Q3" s="307"/>
       <c r="R3" s="307"/>
       <c r="S3" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T3" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U3" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V3" s="315" t="s">
         <v>236</v>
@@ -14917,7 +14907,7 @@
         <v>331</v>
       </c>
       <c r="AE3" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF3" s="306" t="s">
         <v>399</v>
@@ -14929,7 +14919,7 @@
         <v>210</v>
       </c>
       <c r="AI3" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ3" s="306" t="s">
         <v>336</v>
@@ -14950,18 +14940,18 @@
     </row>
     <row r="4" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A4" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B4" s="306"/>
       <c r="C4" s="307"/>
       <c r="D4" s="308" t="s">
+        <v>1175</v>
+      </c>
+      <c r="E4" s="310" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F4" s="317" t="s">
         <v>1177</v>
-      </c>
-      <c r="E4" s="310" t="s">
-        <v>1178</v>
-      </c>
-      <c r="F4" s="317" t="s">
-        <v>1179</v>
       </c>
       <c r="G4" s="307" t="s">
         <v>567</v>
@@ -14973,13 +14963,13 @@
         <v>29</v>
       </c>
       <c r="J4" s="318" t="s">
+        <v>1178</v>
+      </c>
+      <c r="K4" s="307" t="s">
+        <v>1179</v>
+      </c>
+      <c r="L4" s="306" t="s">
         <v>1180</v>
-      </c>
-      <c r="K4" s="307" t="s">
-        <v>1181</v>
-      </c>
-      <c r="L4" s="306" t="s">
-        <v>1182</v>
       </c>
       <c r="M4" s="307" t="s">
         <v>201</v>
@@ -14994,13 +14984,13 @@
       <c r="Q4" s="307"/>
       <c r="R4" s="306"/>
       <c r="S4" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T4" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U4" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V4" s="306" t="s">
         <v>53</v>
@@ -15028,7 +15018,7 @@
         <v>221</v>
       </c>
       <c r="AE4" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF4" s="306" t="s">
         <v>399</v>
@@ -15040,7 +15030,7 @@
         <v>210</v>
       </c>
       <c r="AI4" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ4" s="306" t="s">
         <v>336</v>
@@ -15061,18 +15051,18 @@
     </row>
     <row r="5" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A5" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B5" s="307"/>
       <c r="C5" s="307"/>
       <c r="D5" s="308" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E5" s="310" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F5" s="309" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G5" s="307" t="s">
         <v>567</v>
@@ -15084,13 +15074,13 @@
         <v>29</v>
       </c>
       <c r="J5" s="318" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K5" s="319" t="s">
+        <v>1184</v>
+      </c>
+      <c r="L5" s="320" t="s">
         <v>1185</v>
-      </c>
-      <c r="K5" s="319" t="s">
-        <v>1186</v>
-      </c>
-      <c r="L5" s="320" t="s">
-        <v>1187</v>
       </c>
       <c r="M5" s="307" t="s">
         <v>201</v>
@@ -15105,19 +15095,19 @@
       <c r="Q5" s="321"/>
       <c r="R5" s="321"/>
       <c r="S5" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T5" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U5" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V5" s="322" t="s">
         <v>236</v>
       </c>
       <c r="W5" s="321" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="X5" s="321" t="s">
         <v>53</v>
@@ -15139,7 +15129,7 @@
         <v>221</v>
       </c>
       <c r="AE5" s="321" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF5" s="323" t="s">
         <v>399</v>
@@ -15148,10 +15138,10 @@
         <v>209</v>
       </c>
       <c r="AH5" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI5" s="323" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ5" s="323" t="s">
         <v>336</v>
@@ -15172,18 +15162,18 @@
     </row>
     <row r="6" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A6" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B6" s="307"/>
       <c r="C6" s="307"/>
       <c r="D6" s="308" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E6" s="310" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F6" s="310" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G6" s="307" t="s">
         <v>567</v>
@@ -15195,13 +15185,13 @@
         <v>29</v>
       </c>
       <c r="J6" s="318" t="s">
+        <v>1183</v>
+      </c>
+      <c r="K6" s="307" t="s">
+        <v>1188</v>
+      </c>
+      <c r="L6" s="307" t="s">
         <v>1185</v>
-      </c>
-      <c r="K6" s="307" t="s">
-        <v>1190</v>
-      </c>
-      <c r="L6" s="307" t="s">
-        <v>1187</v>
       </c>
       <c r="M6" s="307" t="s">
         <v>201</v>
@@ -15216,19 +15206,19 @@
       <c r="Q6" s="321"/>
       <c r="R6" s="321"/>
       <c r="S6" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T6" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U6" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V6" s="322" t="s">
         <v>236</v>
       </c>
       <c r="W6" s="321" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="X6" s="321" t="s">
         <v>53</v>
@@ -15250,7 +15240,7 @@
         <v>221</v>
       </c>
       <c r="AE6" s="321" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF6" s="323" t="s">
         <v>399</v>
@@ -15262,7 +15252,7 @@
         <v>210</v>
       </c>
       <c r="AI6" s="323" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ6" s="323" t="s">
         <v>336</v>
@@ -15283,18 +15273,18 @@
     </row>
     <row r="7" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A7" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B7" s="306"/>
       <c r="C7" s="307"/>
       <c r="D7" s="308" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E7" s="310" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="F7" s="310" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="G7" s="307" t="s">
         <v>567</v>
@@ -15306,13 +15296,13 @@
         <v>29</v>
       </c>
       <c r="J7" s="318" t="s">
+        <v>1190</v>
+      </c>
+      <c r="K7" s="307" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L7" s="306" t="s">
         <v>1192</v>
-      </c>
-      <c r="K7" s="307" t="s">
-        <v>1193</v>
-      </c>
-      <c r="L7" s="306" t="s">
-        <v>1194</v>
       </c>
       <c r="M7" s="307" t="s">
         <v>201</v>
@@ -15327,13 +15317,13 @@
       <c r="Q7" s="307"/>
       <c r="R7" s="306"/>
       <c r="S7" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T7" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U7" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V7" s="306" t="s">
         <v>53</v>
@@ -15361,7 +15351,7 @@
         <v>221</v>
       </c>
       <c r="AE7" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF7" s="306" t="s">
         <v>399</v>
@@ -15373,7 +15363,7 @@
         <v>210</v>
       </c>
       <c r="AI7" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ7" s="306" t="s">
         <v>336</v>
@@ -15394,18 +15384,18 @@
     </row>
     <row r="8" spans="1:45" s="324" customFormat="1" ht="41.45">
       <c r="A8" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B8" s="308"/>
       <c r="C8" s="308"/>
       <c r="D8" s="308" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E8" s="317" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F8" s="317" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="G8" s="306" t="s">
         <v>567</v>
@@ -15417,13 +15407,13 @@
         <v>29</v>
       </c>
       <c r="J8" s="311" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="K8" s="306" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L8" s="313" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="M8" s="306" t="s">
         <v>201</v>
@@ -15438,13 +15428,13 @@
       <c r="Q8" s="306"/>
       <c r="R8" s="306"/>
       <c r="S8" s="331" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="T8" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U8" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V8" s="306" t="s">
         <v>236</v>
@@ -15472,7 +15462,7 @@
         <v>331</v>
       </c>
       <c r="AE8" s="306" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF8" s="306" t="s">
         <v>399</v>
@@ -15481,10 +15471,10 @@
         <v>209</v>
       </c>
       <c r="AH8" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI8" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ8" s="306" t="s">
         <v>336</v>
@@ -15505,18 +15495,18 @@
     </row>
     <row r="9" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A9" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B9" s="308"/>
       <c r="C9" s="308"/>
       <c r="D9" s="308" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E9" s="317" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F9" s="317" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="G9" s="306" t="s">
         <v>567</v>
@@ -15528,13 +15518,13 @@
         <v>29</v>
       </c>
       <c r="J9" s="311" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="K9" s="306" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L9" s="313" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="M9" s="306" t="s">
         <v>201</v>
@@ -15549,13 +15539,13 @@
       <c r="Q9" s="306"/>
       <c r="R9" s="306"/>
       <c r="S9" s="331" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="T9" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U9" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V9" s="306" t="s">
         <v>236</v>
@@ -15583,7 +15573,7 @@
         <v>221</v>
       </c>
       <c r="AE9" s="306" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF9" s="306" t="s">
         <v>399</v>
@@ -15595,7 +15585,7 @@
         <v>210</v>
       </c>
       <c r="AI9" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ9" s="306" t="s">
         <v>336</v>
@@ -15616,18 +15606,18 @@
     </row>
     <row r="10" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A10" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B10" s="307"/>
       <c r="C10" s="307"/>
       <c r="D10" s="308" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="E10" s="317" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F10" s="317" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="G10" s="307" t="s">
         <v>567</v>
@@ -15639,13 +15629,13 @@
         <v>29</v>
       </c>
       <c r="J10" s="318" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="K10" s="307" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="L10" s="307" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="M10" s="307" t="s">
         <v>201</v>
@@ -15660,13 +15650,13 @@
       <c r="Q10" s="307"/>
       <c r="R10" s="307"/>
       <c r="S10" s="331" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="T10" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U10" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V10" s="306" t="s">
         <v>53</v>
@@ -15694,7 +15684,7 @@
         <v>221</v>
       </c>
       <c r="AE10" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF10" s="306" t="s">
         <v>399</v>
@@ -15706,7 +15696,7 @@
         <v>210</v>
       </c>
       <c r="AI10" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ10" s="306" t="s">
         <v>336</v>
@@ -15727,18 +15717,18 @@
     </row>
     <row r="11" spans="1:45" s="327" customFormat="1" ht="41.45">
       <c r="A11" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B11" s="308"/>
       <c r="C11" s="308"/>
       <c r="D11" s="308" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E11" s="310" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F11" s="309" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G11" s="306" t="s">
         <v>567</v>
@@ -15751,10 +15741,10 @@
       </c>
       <c r="J11" s="325"/>
       <c r="K11" s="326" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L11" s="326" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="M11" s="306" t="s">
         <v>201</v>
@@ -15769,13 +15759,13 @@
       <c r="Q11" s="306"/>
       <c r="R11" s="306"/>
       <c r="S11" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T11" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U11" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V11" s="306" t="s">
         <v>236</v>
@@ -15806,7 +15796,7 @@
       <c r="AF11" s="306"/>
       <c r="AG11" s="306"/>
       <c r="AH11" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI11" s="306"/>
       <c r="AJ11" s="306"/>
@@ -15822,18 +15812,18 @@
     </row>
     <row r="12" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A12" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B12" s="308"/>
       <c r="C12" s="308"/>
       <c r="D12" s="308" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="E12" s="310" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F12" s="317" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G12" s="306" t="s">
         <v>567</v>
@@ -15845,13 +15835,13 @@
         <v>29</v>
       </c>
       <c r="J12" s="311" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="K12" s="306" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="L12" s="313" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="M12" s="307" t="s">
         <v>201</v>
@@ -15866,13 +15856,13 @@
       <c r="Q12" s="306"/>
       <c r="R12" s="306"/>
       <c r="S12" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T12" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U12" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V12" s="315" t="s">
         <v>236</v>
@@ -15903,7 +15893,7 @@
       <c r="AF12" s="306"/>
       <c r="AG12" s="306"/>
       <c r="AH12" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI12" s="306"/>
       <c r="AJ12" s="306"/>
@@ -15919,18 +15909,18 @@
     </row>
     <row r="13" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A13" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B13" s="308"/>
       <c r="C13" s="308"/>
       <c r="D13" s="308" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E13" s="310" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F13" s="309" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G13" s="306" t="s">
         <v>567</v>
@@ -15943,10 +15933,10 @@
       </c>
       <c r="J13" s="325"/>
       <c r="K13" s="326" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L13" s="326" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="M13" s="306" t="s">
         <v>201</v>
@@ -15961,13 +15951,13 @@
       <c r="Q13" s="306"/>
       <c r="R13" s="306"/>
       <c r="S13" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T13" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U13" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V13" s="306" t="s">
         <v>236</v>
@@ -16014,18 +16004,18 @@
     </row>
     <row r="14" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A14" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B14" s="308"/>
       <c r="C14" s="308"/>
       <c r="D14" s="308" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="E14" s="310" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="F14" s="317" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G14" s="306" t="s">
         <v>567</v>
@@ -16037,13 +16027,13 @@
         <v>29</v>
       </c>
       <c r="J14" s="311" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="K14" s="306" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="L14" s="313" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="M14" s="307" t="s">
         <v>201</v>
@@ -16058,13 +16048,13 @@
       <c r="Q14" s="306"/>
       <c r="R14" s="306"/>
       <c r="S14" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T14" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U14" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V14" s="315" t="s">
         <v>236</v>
@@ -16111,18 +16101,18 @@
     </row>
     <row r="15" spans="1:45" s="285" customFormat="1" ht="27.6">
       <c r="A15" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B15" s="306"/>
       <c r="C15" s="307"/>
       <c r="D15" s="308" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E15" s="309" t="s">
+        <v>1212</v>
+      </c>
+      <c r="F15" s="310" t="s">
         <v>1213</v>
-      </c>
-      <c r="E15" s="309" t="s">
-        <v>1214</v>
-      </c>
-      <c r="F15" s="310" t="s">
-        <v>1215</v>
       </c>
       <c r="G15" s="307" t="s">
         <v>567</v>
@@ -16135,10 +16125,10 @@
       </c>
       <c r="J15" s="328"/>
       <c r="K15" s="315" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="L15" s="306" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="M15" s="307" t="s">
         <v>201</v>
@@ -16153,13 +16143,13 @@
       <c r="Q15" s="307"/>
       <c r="R15" s="306"/>
       <c r="S15" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T15" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U15" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V15" s="307" t="s">
         <v>236</v>
@@ -16188,7 +16178,7 @@
       <c r="AF15" s="306"/>
       <c r="AG15" s="307"/>
       <c r="AH15" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI15" s="306"/>
       <c r="AJ15" s="306"/>
@@ -16204,18 +16194,18 @@
     </row>
     <row r="16" spans="1:45" s="285" customFormat="1" ht="41.45">
       <c r="A16" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B16" s="306"/>
       <c r="C16" s="307"/>
       <c r="D16" s="308" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E16" s="309" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F16" s="310" t="s">
         <v>1213</v>
-      </c>
-      <c r="E16" s="309" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F16" s="310" t="s">
-        <v>1215</v>
       </c>
       <c r="G16" s="307" t="s">
         <v>567</v>
@@ -16227,13 +16217,13 @@
         <v>29</v>
       </c>
       <c r="J16" s="318" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="K16" s="315" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="L16" s="313" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M16" s="307" t="s">
         <v>201</v>
@@ -16248,13 +16238,13 @@
       <c r="Q16" s="307"/>
       <c r="R16" s="306"/>
       <c r="S16" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T16" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U16" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V16" s="315" t="s">
         <v>236</v>
@@ -16282,7 +16272,7 @@
         <v>221</v>
       </c>
       <c r="AE16" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF16" s="306" t="s">
         <v>399</v>
@@ -16291,10 +16281,10 @@
         <v>209</v>
       </c>
       <c r="AH16" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI16" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ16" s="306" t="s">
         <v>336</v>
@@ -16315,18 +16305,18 @@
     </row>
     <row r="17" spans="1:45" customFormat="1" ht="41.45">
       <c r="A17" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B17" s="308"/>
       <c r="C17" s="308"/>
       <c r="D17" s="308" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E17" s="310" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="F17" s="309" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G17" s="306" t="s">
         <v>567</v>
@@ -16338,13 +16328,13 @@
         <v>29</v>
       </c>
       <c r="J17" s="311" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="K17" s="306" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="L17" s="313" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="M17" s="306" t="s">
         <v>201</v>
@@ -16359,13 +16349,13 @@
       <c r="Q17" s="306"/>
       <c r="R17" s="306"/>
       <c r="S17" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T17" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U17" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V17" s="306" t="s">
         <v>236</v>
@@ -16396,7 +16386,7 @@
       <c r="AF17" s="306"/>
       <c r="AG17" s="306"/>
       <c r="AH17" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI17" s="306"/>
       <c r="AJ17" s="306"/>
@@ -16412,18 +16402,18 @@
     </row>
     <row r="18" spans="1:45" customFormat="1" ht="27.6">
       <c r="A18" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B18" s="308"/>
       <c r="C18" s="308"/>
       <c r="D18" s="308" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E18" s="310" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="F18" s="309" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G18" s="306" t="s">
         <v>567</v>
@@ -16436,10 +16426,10 @@
       </c>
       <c r="J18" s="326"/>
       <c r="K18" s="306" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="L18" s="313" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="M18" s="306" t="s">
         <v>201</v>
@@ -16454,13 +16444,13 @@
       <c r="Q18" s="306"/>
       <c r="R18" s="306"/>
       <c r="S18" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T18" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U18" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V18" s="307" t="s">
         <v>236</v>
@@ -16489,7 +16479,7 @@
       <c r="AF18" s="306"/>
       <c r="AG18" s="306"/>
       <c r="AH18" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI18" s="306"/>
       <c r="AJ18" s="306"/>
@@ -16505,18 +16495,18 @@
     </row>
     <row r="19" spans="1:45" customFormat="1" ht="41.45">
       <c r="A19" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B19" s="308"/>
       <c r="C19" s="308"/>
       <c r="D19" s="308" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E19" s="310" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="F19" s="309" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G19" s="306" t="s">
         <v>567</v>
@@ -16529,10 +16519,10 @@
       </c>
       <c r="J19" s="326"/>
       <c r="K19" s="306" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="L19" s="326" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="M19" s="306" t="s">
         <v>201</v>
@@ -16547,13 +16537,13 @@
       <c r="Q19" s="306"/>
       <c r="R19" s="306"/>
       <c r="S19" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T19" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U19" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V19" s="306" t="s">
         <v>236</v>
@@ -16584,7 +16574,7 @@
       <c r="AF19" s="306"/>
       <c r="AG19" s="306"/>
       <c r="AH19" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI19" s="306"/>
       <c r="AJ19" s="306"/>
@@ -16600,18 +16590,18 @@
     </row>
     <row r="20" spans="1:45" customFormat="1" ht="41.45">
       <c r="A20" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B20" s="308"/>
       <c r="C20" s="308"/>
       <c r="D20" s="308" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="E20" s="310" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="F20" s="309" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="G20" s="306" t="s">
         <v>567</v>
@@ -16624,10 +16614,10 @@
       </c>
       <c r="J20" s="325"/>
       <c r="K20" s="306" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="L20" s="306" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="M20" s="306" t="s">
         <v>201</v>
@@ -16642,13 +16632,13 @@
       <c r="Q20" s="306"/>
       <c r="R20" s="306"/>
       <c r="S20" s="331" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="T20" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U20" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V20" s="307" t="s">
         <v>236</v>
@@ -16677,7 +16667,7 @@
       <c r="AF20" s="306"/>
       <c r="AG20" s="306"/>
       <c r="AH20" s="36" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="AI20" s="306"/>
       <c r="AJ20" s="306"/>
@@ -16693,18 +16683,18 @@
     </row>
     <row r="21" spans="1:45" customFormat="1" ht="41.45">
       <c r="A21" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B21" s="307"/>
       <c r="C21" s="307"/>
       <c r="D21" s="308" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E21" s="309" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F21" s="309" t="s">
         <v>1230</v>
-      </c>
-      <c r="E21" s="309" t="s">
-        <v>1231</v>
-      </c>
-      <c r="F21" s="309" t="s">
-        <v>1232</v>
       </c>
       <c r="G21" s="307" t="s">
         <v>567</v>
@@ -16716,13 +16706,13 @@
         <v>29</v>
       </c>
       <c r="J21" s="311" t="s">
+        <v>1231</v>
+      </c>
+      <c r="K21" s="307" t="s">
+        <v>1232</v>
+      </c>
+      <c r="L21" s="313" t="s">
         <v>1233</v>
-      </c>
-      <c r="K21" s="307" t="s">
-        <v>1234</v>
-      </c>
-      <c r="L21" s="313" t="s">
-        <v>1235</v>
       </c>
       <c r="M21" s="307" t="s">
         <v>201</v>
@@ -16737,13 +16727,13 @@
       <c r="Q21" s="307"/>
       <c r="R21" s="307"/>
       <c r="S21" s="331" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="T21" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U21" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V21" s="315" t="s">
         <v>236</v>
@@ -16771,7 +16761,7 @@
         <v>221</v>
       </c>
       <c r="AE21" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF21" s="306" t="s">
         <v>399</v>
@@ -16783,7 +16773,7 @@
         <v>210</v>
       </c>
       <c r="AI21" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ21" s="306" t="s">
         <v>336</v>
@@ -16804,18 +16794,18 @@
     </row>
     <row r="22" spans="1:45" customFormat="1" ht="41.45">
       <c r="A22" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B22" s="306"/>
       <c r="C22" s="307"/>
       <c r="D22" s="308" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E22" s="310" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F22" s="317" t="s">
         <v>1237</v>
-      </c>
-      <c r="E22" s="310" t="s">
-        <v>1238</v>
-      </c>
-      <c r="F22" s="317" t="s">
-        <v>1239</v>
       </c>
       <c r="G22" s="307" t="s">
         <v>567</v>
@@ -16827,13 +16817,13 @@
         <v>131</v>
       </c>
       <c r="J22" s="311" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="K22" s="306" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="L22" s="306" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="M22" s="307" t="s">
         <v>201</v>
@@ -16848,13 +16838,13 @@
       <c r="Q22" s="307"/>
       <c r="R22" s="306"/>
       <c r="S22" s="331" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="T22" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U22" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V22" s="315" t="s">
         <v>236</v>
@@ -16882,7 +16872,7 @@
         <v>221</v>
       </c>
       <c r="AE22" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF22" s="306" t="s">
         <v>399</v>
@@ -16894,7 +16884,7 @@
         <v>210</v>
       </c>
       <c r="AI22" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ22" s="306" t="s">
         <v>336</v>
@@ -16915,18 +16905,18 @@
     </row>
     <row r="23" spans="1:45" customFormat="1" ht="41.45">
       <c r="A23" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B23" s="306"/>
       <c r="C23" s="307"/>
       <c r="D23" s="308" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="E23" s="310" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="F23" s="317" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="G23" s="307" t="s">
         <v>567</v>
@@ -16939,10 +16929,10 @@
       </c>
       <c r="J23" s="325"/>
       <c r="K23" s="312" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="L23" s="329" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="M23" s="307" t="s">
         <v>201</v>
@@ -16957,13 +16947,13 @@
       <c r="Q23" s="307"/>
       <c r="R23" s="306"/>
       <c r="S23" s="331" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="T23" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U23" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V23" s="315" t="s">
         <v>236</v>
@@ -16991,7 +16981,7 @@
         <v>221</v>
       </c>
       <c r="AE23" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF23" s="306" t="s">
         <v>399</v>
@@ -17003,7 +16993,7 @@
         <v>210</v>
       </c>
       <c r="AI23" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ23" s="306" t="s">
         <v>336</v>
@@ -17024,36 +17014,36 @@
     </row>
     <row r="24" spans="1:45" s="316" customFormat="1" ht="41.45">
       <c r="A24" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B24" s="306"/>
       <c r="C24" s="307"/>
       <c r="D24" s="308" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="E24" s="310" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F24" s="310" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="G24" s="307" t="s">
         <v>567</v>
       </c>
       <c r="H24" s="306" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="I24" s="306" t="s">
         <v>131</v>
       </c>
       <c r="J24" s="318" t="s">
+        <v>1246</v>
+      </c>
+      <c r="K24" s="307" t="s">
+        <v>1247</v>
+      </c>
+      <c r="L24" s="306" t="s">
         <v>1248</v>
-      </c>
-      <c r="K24" s="307" t="s">
-        <v>1249</v>
-      </c>
-      <c r="L24" s="306" t="s">
-        <v>1250</v>
       </c>
       <c r="M24" s="307" t="s">
         <v>201</v>
@@ -17068,13 +17058,13 @@
       <c r="Q24" s="307"/>
       <c r="R24" s="306"/>
       <c r="S24" s="332" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="T24" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U24" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V24" s="306" t="s">
         <v>53</v>
@@ -17104,7 +17094,7 @@
         <v>221</v>
       </c>
       <c r="AE24" s="307" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="AF24" s="306" t="s">
         <v>399</v>
@@ -17116,7 +17106,7 @@
         <v>210</v>
       </c>
       <c r="AI24" s="306" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="AJ24" s="306" t="s">
         <v>336</v>
@@ -17137,18 +17127,18 @@
     </row>
     <row r="25" spans="1:45" s="316" customFormat="1" ht="27.6">
       <c r="A25" s="305" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B25" s="308"/>
       <c r="C25" s="308"/>
       <c r="D25" s="308" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="E25" s="317" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="F25" s="317" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="G25" s="306" t="s">
         <v>567</v>
@@ -17160,13 +17150,13 @@
         <v>29</v>
       </c>
       <c r="J25" s="311" t="s">
+        <v>1252</v>
+      </c>
+      <c r="K25" s="306" t="s">
+        <v>1253</v>
+      </c>
+      <c r="L25" s="306" t="s">
         <v>1254</v>
-      </c>
-      <c r="K25" s="306" t="s">
-        <v>1255</v>
-      </c>
-      <c r="L25" s="306" t="s">
-        <v>1256</v>
       </c>
       <c r="M25" s="306" t="s">
         <v>201</v>
@@ -17184,16 +17174,16 @@
         <v>233</v>
       </c>
       <c r="T25" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="U25" s="331" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="V25" s="306" t="s">
         <v>236</v>
       </c>
       <c r="W25" s="306" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="X25" s="306" t="s">
         <v>53</v>
@@ -17476,15 +17466,15 @@
     </row>
     <row r="2" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A2" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B2" s="178"/>
       <c r="C2" s="1"/>
       <c r="D2" s="173" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E2" s="301" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="F2" s="303" t="s">
         <v>642</v>
@@ -17500,13 +17490,13 @@
       </c>
       <c r="J2" s="36"/>
       <c r="K2" s="36" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="L2" s="36" t="s">
         <v>700</v>
       </c>
       <c r="M2" s="36" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="N2" s="84">
         <v>45798</v>
@@ -17567,15 +17557,15 @@
     </row>
     <row r="3" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A3" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B3" s="178"/>
       <c r="C3" s="1"/>
       <c r="D3" s="173" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E3" s="301" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="F3" s="303" t="s">
         <v>642</v>
@@ -17591,13 +17581,13 @@
       </c>
       <c r="J3" s="36"/>
       <c r="K3" s="36" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="L3" s="36" t="s">
         <v>707</v>
       </c>
       <c r="M3" s="36" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="N3" s="84">
         <v>45800</v>
@@ -17658,15 +17648,15 @@
     </row>
     <row r="4" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A4" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B4" s="178"/>
       <c r="C4" s="1"/>
       <c r="D4" s="173" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E4" s="301" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="F4" s="303" t="s">
         <v>642</v>
@@ -17682,13 +17672,13 @@
       </c>
       <c r="J4" s="36"/>
       <c r="K4" s="36" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="L4" s="36" t="s">
         <v>713</v>
       </c>
       <c r="M4" s="36" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="N4" s="84">
         <v>45802</v>
@@ -17749,15 +17739,15 @@
     </row>
     <row r="5" spans="1:89" s="33" customFormat="1" ht="110.45">
       <c r="A5" s="1" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="B5" s="178"/>
       <c r="C5" s="1"/>
       <c r="D5" s="173" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="E5" s="304" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="F5" s="303" t="s">
         <v>642</v>
@@ -17773,13 +17763,13 @@
       </c>
       <c r="J5" s="36"/>
       <c r="K5" s="36" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="L5" s="145" t="s">
         <v>719</v>
       </c>
       <c r="M5" s="36" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="N5" s="84">
         <v>45804</v>
@@ -25853,7 +25843,7 @@
   </sheetPr>
   <dimension ref="A1:CI7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -27346,7 +27336,7 @@
   </sheetPr>
   <dimension ref="A1:AJ16"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:S7"/>
     </sheetView>
   </sheetViews>
@@ -27997,7 +27987,7 @@
   </sheetPr>
   <dimension ref="A1:CK44"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
